--- a/resultsPSCC/KL/results_A_IEEE_118_syst_KL_35_100_0.9_3.0.xlsx
+++ b/resultsPSCC/KL/results_A_IEEE_118_syst_KL_35_100_0.9_3.0.xlsx
@@ -13,9 +13,7 @@
     <sheet name="results0.9" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'results0.7'!$A$1:$I$601</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'results0.8'!$A$1:$I$201</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'results0.9'!$A$1:$I$201</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'results0.7'!$A$1:$I$100</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="10">
   <si>
     <t xml:space="preserve">Instance</t>
   </si>
@@ -56,7 +54,7 @@
     <t xml:space="preserve">force</t>
   </si>
   <si>
-    <t xml:space="preserve">IEEE254</t>
+    <t xml:space="preserve">IEEE54</t>
   </si>
 </sst>
 </file>
@@ -174,23 +172,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I601"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C195" activeCellId="0" sqref="C195"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -238,16 +228,16 @@
         <v>0.7</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>61.5715479850769</v>
+        <v>32.5948119163513</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1749872.47955423</v>
+        <v>1676006.20374435</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1598165.90269125</v>
+        <v>1619185.81648229</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1597823.35502369</v>
+        <v>1617772.21602613</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>3</v>
@@ -267,16 +257,16 @@
         <v>0.7</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>36.8255250453949</v>
+        <v>33.1732089519501</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1695317.62023639</v>
+        <v>1754163.96712458</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1603368.68132087</v>
+        <v>1602706.34200859</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1601798.77615838</v>
+        <v>1601942.59012548</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>3</v>
@@ -296,16 +286,16 @@
         <v>0.7</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>40.6565780639648</v>
+        <v>30.6891660690308</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1743514.9675047</v>
+        <v>1699528.57099288</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1597638.34055213</v>
+        <v>1616071.85752248</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>1596131.11159559</v>
+        <v>1614482.03359705</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>3</v>
@@ -325,16 +315,16 @@
         <v>0.7</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>45.8921589851379</v>
+        <v>28.4550359249115</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1707779.21897468</v>
+        <v>1677474.01233216</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1603084.34216842</v>
+        <v>1613249.2253255</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>1601953.2283126</v>
+        <v>1611643.34976422</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>3</v>
@@ -354,16 +344,16 @@
         <v>0.7</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>43.1296501159668</v>
+        <v>41.4407060146332</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1673904.73163387</v>
+        <v>1706687.28200795</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>1611127.64338234</v>
+        <v>1617165.78848299</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>1609538.39610555</v>
+        <v>1616613.10742888</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>3</v>
@@ -383,16 +373,16 @@
         <v>0.7</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>45.2163200378418</v>
+        <v>27.2666940689087</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1686862.00196341</v>
+        <v>1672962.32027402</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1610173.42656499</v>
+        <v>1611282.39300478</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>1608592.31430659</v>
+        <v>1609684.06473065</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>3</v>
@@ -412,16 +402,16 @@
         <v>0.7</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>28.9736289978027</v>
+        <v>25.4367029666901</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1707128.63500578</v>
+        <v>1726967.14663651</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1601075.65744996</v>
+        <v>1605839.63941844</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>1599602.5742675</v>
+        <v>1604406.83507071</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>3</v>
@@ -441,16 +431,16 @@
         <v>0.7</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>73.0952408313751</v>
+        <v>25.4950239658356</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1692740.13214059</v>
+        <v>1703665.58039514</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1610835.22552966</v>
+        <v>1605875.42705521</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>1609907.0649004</v>
+        <v>1604274.76086552</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>3</v>
@@ -470,16 +460,16 @@
         <v>0.7</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>39.6130700111389</v>
+        <v>43.7465817928314</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1730488.33821506</v>
+        <v>1758951.09902213</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1605149.00463963</v>
+        <v>1611280.9123677</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>1603591.01783854</v>
+        <v>1610819.86384924</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>3</v>
@@ -499,16 +489,16 @@
         <v>0.7</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>47.2961158752441</v>
+        <v>31.0761299133301</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1667040.08525388</v>
+        <v>1698180.25542517</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1611501.37953469</v>
+        <v>1615211.292827</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>1610429.90256392</v>
+        <v>1614474.02489482</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>3</v>
@@ -528,16 +518,16 @@
         <v>0.7</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>85.9713358879089</v>
+        <v>25.7843489646912</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1657796.69808987</v>
+        <v>1643909.01452625</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1607260.342695</v>
+        <v>1629269.62204592</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>1605747.23469627</v>
+        <v>1627674.25352624</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>3</v>
@@ -557,16 +547,16 @@
         <v>0.7</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>83.7179780006409</v>
+        <v>57.3849899768829</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1661237.83199164</v>
+        <v>1659473.00190272</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1606953.77542406</v>
+        <v>1613961.13185838</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>1605825.87829259</v>
+        <v>1613059.82743697</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>3</v>
@@ -586,16 +576,16 @@
         <v>0.7</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>80.5466589927673</v>
+        <v>39.9564518928528</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1650614.87553325</v>
+        <v>1656421.03196036</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1611765.48011425</v>
+        <v>1620908.84420179</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>1610441.99804393</v>
+        <v>1619808.66532521</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>3</v>
@@ -615,16 +605,16 @@
         <v>0.7</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>66.5223579406738</v>
+        <v>52.6300401687622</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1658359.7645442</v>
+        <v>1646067.18803422</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1606486.97107614</v>
+        <v>1619375.47731429</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>1605185.70580993</v>
+        <v>1618309.44753201</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>3</v>
@@ -644,16 +634,16 @@
         <v>0.7</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>65.0299429893494</v>
+        <v>56.2024731636047</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1647160.82435605</v>
+        <v>1651573.76543385</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1615218.30132122</v>
+        <v>1630895.6158838</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1613766.95079181</v>
+        <v>1630070.87430278</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>3</v>
@@ -673,16 +663,16 @@
         <v>0.7</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>77.9738080501556</v>
+        <v>73.6914050579071</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1663765.54392456</v>
+        <v>1644371.42384829</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1608775.23053542</v>
+        <v>1617780.62901061</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1607960.83994131</v>
+        <v>1616429.08956583</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>3</v>
@@ -702,16 +692,16 @@
         <v>0.7</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>56.632542848587</v>
+        <v>64.1144871711731</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>1655341.91442809</v>
+        <v>1668314.25154685</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1611849.53711522</v>
+        <v>1624415.02589678</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1610259.93297178</v>
+        <v>1623376.67277886</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>3</v>
@@ -731,16 +721,16 @@
         <v>0.7</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>75.9817960262299</v>
+        <v>61.0829241275787</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>1657813.81317642</v>
+        <v>1664362.96493757</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>1611461.46707168</v>
+        <v>1614428.67066764</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>1610743.83577444</v>
+        <v>1613548.01214743</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>3</v>
@@ -754,22 +744,22 @@
         <v>20</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>60.4581730365753</v>
+        <v>33.8071310520172</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>1676278.80677746</v>
+        <v>1665377.62708618</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1609822.06951129</v>
+        <v>1622405.10136037</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>1609090.11827623</v>
+        <v>1621796.82969234</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>3</v>
@@ -780,25 +770,25 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>60.029767036438</v>
+        <v>34.5810210704803</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>1641610.19528601</v>
+        <v>1636140.74910044</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>1610133.79724695</v>
+        <v>1630665.61207236</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>1609320.2672845</v>
+        <v>1629168.69951136</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>3</v>
@@ -812,22 +802,22 @@
         <v>30</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>102.79035615921</v>
+        <v>85.956377029419</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1640103.94852091</v>
+        <v>1648519.28891008</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>1611721.75553034</v>
+        <v>1620726.79482151</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>1610176.48335394</v>
+        <v>1619659.88893644</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>3</v>
@@ -841,22 +831,22 @@
         <v>30</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>52.9537658691406</v>
+        <v>72.1954591274262</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>1646877.33976362</v>
+        <v>1645496.37081441</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>1611571.46896932</v>
+        <v>1623778.07074318</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>1610135.51352929</v>
+        <v>1623167.04090158</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>3</v>
@@ -870,22 +860,22 @@
         <v>30</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>91.7117848396301</v>
+        <v>79.5679779052734</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>1639304.03197129</v>
+        <v>1634025.28737609</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>1611901.13653237</v>
+        <v>1634057.25121049</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1610825.07287955</v>
+        <v>1632500.55682777</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>3</v>
@@ -899,22 +889,22 @@
         <v>30</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>83.1063768863678</v>
+        <v>71.2992010116577</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>1640585.3590625</v>
+        <v>1635935.04705131</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>1615284.89477392</v>
+        <v>1631712.51745793</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>1614987.56770954</v>
+        <v>1630083.60216598</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>3</v>
@@ -928,22 +918,22 @@
         <v>30</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>89.1929349899292</v>
+        <v>45.8424699306488</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>1638713.91445947</v>
+        <v>1637694.05551892</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>1619441.36673965</v>
+        <v>1624889.12140439</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1618132.23020832</v>
+        <v>1623449.33850406</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>3</v>
@@ -957,22 +947,22 @@
         <v>30</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>93.1909329891205</v>
+        <v>388.806663036346</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>1651033.06349957</v>
+        <v>1644996.68848554</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>1609081.77964585</v>
+        <v>1624493.11686059</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>1608034.34318433</v>
+        <v>1624080.82130784</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>3</v>
@@ -986,22 +976,22 @@
         <v>30</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>69.2428970336914</v>
+        <v>68.0703520774841</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1647275.54245159</v>
+        <v>1649317.26070353</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1613874.75865235</v>
+        <v>1623870.09234243</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>1612387.23526781</v>
+        <v>1622936.13353911</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>3</v>
@@ -1015,22 +1005,22 @@
         <v>30</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>78.3967869281769</v>
+        <v>55.3988800048828</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>1644713.05138078</v>
+        <v>1636947.81505754</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>1614207.40537314</v>
+        <v>1621965.51637227</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>1612684.26451691</v>
+        <v>1621476.33155488</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>3</v>
@@ -1044,22 +1034,22 @@
         <v>30</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>79.7170419692993</v>
+        <v>42.7863399982452</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>1649992.66942049</v>
+        <v>1651134.23900444</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>1612123.36820627</v>
+        <v>1622027.46647859</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>1610761.65678899</v>
+        <v>1620446.66946802</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>3</v>
@@ -1070,25 +1060,25 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>88.3829619884491</v>
+        <v>78.7843089103699</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>1636605.09157039</v>
+        <v>1634959.96370572</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>1609352.44445424</v>
+        <v>1632689.93901323</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>1608200.81357316</v>
+        <v>1631129.16108957</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>3</v>
@@ -1102,22 +1092,22 @@
         <v>40</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>132.764052152634</v>
+        <v>96.2851688861847</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>1628734.36640223</v>
+        <v>1640373.55827792</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>1616258.13980454</v>
+        <v>1625835.87756751</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>1614741.72168799</v>
+        <v>1624559.14845029</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>3</v>
@@ -1131,22 +1121,22 @@
         <v>40</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>68.5824851989746</v>
+        <v>99.2680490016937</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>1643021.22222238</v>
+        <v>1635345.6552011</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>1614139.54264096</v>
+        <v>1624093.78235862</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>1612899.32411257</v>
+        <v>1622794.21831465</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>3</v>
@@ -1160,22 +1150,22 @@
         <v>40</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>113.664051055908</v>
+        <v>84.9788658618927</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>1631875.4546631</v>
+        <v>1632149.60591067</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>1616417.35770739</v>
+        <v>1633826.64758559</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>1615281.66820305</v>
+        <v>1632495.35485965</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>3</v>
@@ -1189,22 +1179,22 @@
         <v>40</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>86.0477449893951</v>
+        <v>61.6400949954987</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>1635451.20926697</v>
+        <v>1631980.10125865</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>1616650.9099031</v>
+        <v>1638131.09548903</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>1615496.89345699</v>
+        <v>1636649.53358315</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>3</v>
@@ -1218,22 +1208,22 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>80.0950510501862</v>
+        <v>89.0271480083466</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>1632281.85728034</v>
+        <v>1637916.25840187</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>1620725.38548143</v>
+        <v>1623414.39875947</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>1619437.72826934</v>
+        <v>1622530.1091307</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>3</v>
@@ -1247,22 +1237,22 @@
         <v>40</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>99.2152819633484</v>
+        <v>52.0026080608368</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>1633486.33638563</v>
+        <v>1639236.8784853</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>1611706.14721418</v>
+        <v>1627450.79637511</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>1610886.10159485</v>
+        <v>1625842.79446548</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>3</v>
@@ -1276,22 +1266,22 @@
         <v>40</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>97.2602868080139</v>
+        <v>54.636656999588</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>1632904.15807496</v>
+        <v>1643685.72572072</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>1614251.32024946</v>
+        <v>1624564.44435007</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>1613423.32853093</v>
+        <v>1623521.47180703</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>3</v>
@@ -1305,22 +1295,22 @@
         <v>40</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>97.6342389583588</v>
+        <v>79.168251991272</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>1636350.1011132</v>
+        <v>1635422.45160369</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>1613490.08961714</v>
+        <v>1622224.19780863</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>1612011.86129511</v>
+        <v>1621418.68837544</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>3</v>
@@ -1334,22 +1324,22 @@
         <v>40</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>135.936189889908</v>
+        <v>425.216786146164</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>1645864.0508427</v>
+        <v>1639239.04509086</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>1609950.90846639</v>
+        <v>1625930.40950193</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>1608723.74781257</v>
+        <v>1625553.23458125</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>3</v>
@@ -1360,25 +1350,25 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>77.0154409408569</v>
+        <v>96.3114650249481</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>1631302.45467118</v>
+        <v>1630078.30243379</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>1610382.29998804</v>
+        <v>1636645.21504964</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>1609500.04690335</v>
+        <v>1635815.24168606</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>3</v>
@@ -1392,22 +1382,22 @@
         <v>50</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>174.207927942276</v>
+        <v>58.7290961742401</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>1629236.16874687</v>
+        <v>1632833.17129462</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>1617217.94860936</v>
+        <v>1627389.46780223</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>1616456.00804576</v>
+        <v>1626062.81675935</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>3</v>
@@ -1421,22 +1411,22 @@
         <v>50</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>88.755077123642</v>
+        <v>115.078321933746</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>1636674.19839094</v>
+        <v>1631608.74069082</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>1616813.84475594</v>
+        <v>1629153.22265713</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>1615201.50517952</v>
+        <v>1629153.22265713</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>3</v>
@@ -1450,22 +1440,22 @@
         <v>50</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>90.8969039916992</v>
+        <v>117.500412225723</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>1631508.60919519</v>
+        <v>1627122.03281016</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>1616720.87436987</v>
+        <v>1634208.48532147</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>1616118.67551016</v>
+        <v>1633694.90793881</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>3</v>
@@ -1479,22 +1469,22 @@
         <v>50</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>157.642686128616</v>
+        <v>69.3684229850769</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>1632815.77980913</v>
+        <v>1628011.03260842</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>1618617.51793743</v>
+        <v>1637640.25162766</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>1617832.46943395</v>
+        <v>1636620.26492525</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>3</v>
@@ -1508,22 +1498,22 @@
         <v>50</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>116.298335075378</v>
+        <v>55.1001169681549</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>1630053.90404288</v>
+        <v>1628212.38047086</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>1620850.9048753</v>
+        <v>1624747.85506294</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>1619787.06316994</v>
+        <v>1623126.08151794</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>3</v>
@@ -1537,22 +1527,22 @@
         <v>50</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>164.670751094818</v>
+        <v>57.3879818916321</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>1629198.76382194</v>
+        <v>1637154.74971185</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>1617181.97266569</v>
+        <v>1626618.45998186</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>1616570.93490518</v>
+        <v>1625022.05808397</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>3</v>
@@ -1566,22 +1556,22 @@
         <v>50</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>130.638719081879</v>
+        <v>61.0269298553467</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>1632224.50769844</v>
+        <v>1635546.81188366</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>1616983.97123979</v>
+        <v>1627469.4561882</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>1616116.61804025</v>
+        <v>1626027.95027858</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>3</v>
@@ -1595,22 +1585,22 @@
         <v>50</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>140.535112142563</v>
+        <v>86.7458248138428</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>1633317.18636888</v>
+        <v>1632206.53328179</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>1612461.49328099</v>
+        <v>1634289.07122931</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>1611820.47755906</v>
+        <v>1633023.13694972</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>3</v>
@@ -1624,22 +1614,22 @@
         <v>50</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>127.548635959625</v>
+        <v>101.027997970581</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>1638947.9350384</v>
+        <v>1638202.91365223</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>1613451.05291854</v>
+        <v>1630697.21165955</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>1612305.55037693</v>
+        <v>1629080.75908532</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>3</v>
@@ -1650,25 +1640,25 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>70.4549992084503</v>
+        <v>109.057501077652</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>1628982.16013578</v>
+        <v>1631063.37002438</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>1613486.2947758</v>
+        <v>1635816.23155848</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>1611893.48926701</v>
+        <v>1634791.6688031</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>3</v>
@@ -1682,22 +1672,22 @@
         <v>60</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>122.13968205452</v>
+        <v>87.3122470378876</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>1630776.3368127</v>
+        <v>1631337.65911894</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>1617723.15451226</v>
+        <v>1631297.72361218</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>1616107.91582209</v>
+        <v>1629729.89070895</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>3</v>
@@ -1711,22 +1701,22 @@
         <v>60</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>107.454821109772</v>
+        <v>136.12348818779</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>1630456.28008659</v>
+        <v>1629737.27616059</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>1617414.51266374</v>
+        <v>1630986.25246612</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1616875.95408709</v>
+        <v>1629777.5368446</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>3</v>
@@ -1740,22 +1730,22 @@
         <v>60</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>101.928992033005</v>
+        <v>130.024403095245</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>1630416.1890597</v>
+        <v>1628426.64362016</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>1621864.73758157</v>
+        <v>1634661.65961832</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>1620389.27641527</v>
+        <v>1633508.43994667</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>3</v>
@@ -1769,22 +1759,22 @@
         <v>60</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>96.8856928348541</v>
+        <v>93.5096819400787</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>1629407.98766133</v>
+        <v>1626144.07873513</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>1619650.97053406</v>
+        <v>1637032.3193182</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>1618041.76813289</v>
+        <v>1635760.40520033</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>3</v>
@@ -1798,22 +1788,22 @@
         <v>60</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>111.611485004425</v>
+        <v>84.0565359592438</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>1629207.80999659</v>
+        <v>1628127.20720504</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>1622303.39778123</v>
+        <v>1627213.2761442</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>1620826.38689532</v>
+        <v>1626507.18623512</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>3</v>
@@ -1827,22 +1817,22 @@
         <v>60</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>102.456102132797</v>
+        <v>70.4590277671814</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>1629419.25641943</v>
+        <v>1631848.01691429</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>1620258.14263418</v>
+        <v>1630188.23852322</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>1618842.3053041</v>
+        <v>1628607.87679868</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>3</v>
@@ -1856,22 +1846,22 @@
         <v>60</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>147.071403980255</v>
+        <v>67.3770849704742</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>1627572.49026957</v>
+        <v>1627749.37151786</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>1619623.14979447</v>
+        <v>1629084.79913715</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>1618163.07441416</v>
+        <v>1628112.07458819</v>
       </c>
       <c r="I58" s="1" t="n">
         <v>3</v>
@@ -1885,22 +1875,22 @@
         <v>60</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>84.7400381565094</v>
+        <v>73.3028581142426</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>1631760.02959631</v>
+        <v>1629060.39691637</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>1614391.67789575</v>
+        <v>1634003.53245286</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>1612799.84039128</v>
+        <v>1633158.72494349</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>3</v>
@@ -1914,22 +1904,22 @@
         <v>60</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>180.007748842239</v>
+        <v>82.3631961345673</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>1632344.07656054</v>
+        <v>1630991.67653442</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>1614338.96105344</v>
+        <v>1631680.10324264</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>1612994.30903041</v>
+        <v>1630519.38433361</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>3</v>
@@ -1940,25 +1930,25 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>113.175209999084</v>
+        <v>87.3846471309662</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>1629951.15707582</v>
+        <v>1626402.49906891</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>1616259.94665663</v>
+        <v>1635424.79428147</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>1615023.64947177</v>
+        <v>1634377.38961595</v>
       </c>
       <c r="I61" s="1" t="n">
         <v>3</v>
@@ -1972,22 +1962,22 @@
         <v>70</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>179.197256088257</v>
+        <v>110.052906036377</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>1627383.2288815</v>
+        <v>1632499.01586503</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>1617765.31547001</v>
+        <v>1631345.96757211</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>1616591.11769691</v>
+        <v>1630243.50366876</v>
       </c>
       <c r="I62" s="1" t="n">
         <v>3</v>
@@ -2001,22 +1991,22 @@
         <v>70</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>111.629817962646</v>
+        <v>110.154998064041</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>1629884.13496631</v>
+        <v>1627878.97593363</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>1618116.99404626</v>
+        <v>1630980.19542346</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>1616515.74488767</v>
+        <v>1629719.7746887</v>
       </c>
       <c r="I63" s="1" t="n">
         <v>3</v>
@@ -2030,22 +2020,22 @@
         <v>70</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>117.536952018738</v>
+        <v>136.211179971695</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>1627756.03794376</v>
+        <v>1626921.66876528</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>1622721.53002211</v>
+        <v>1634378.80257882</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>1621472.56119086</v>
+        <v>1633586.70754905</v>
       </c>
       <c r="I64" s="1" t="n">
         <v>3</v>
@@ -2059,22 +2049,22 @@
         <v>70</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>156.592050075531</v>
+        <v>79.8408269882202</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>1629398.00257427</v>
+        <v>1625172.12247552</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>1620415.40641023</v>
+        <v>1637037.24540284</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>1619058.75143276</v>
+        <v>1635489.66534948</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>3</v>
@@ -2088,22 +2078,22 @@
         <v>70</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>138.695248842239</v>
+        <v>184.80473613739</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>1629570.54177444</v>
+        <v>1627815.68915213</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>1627005.87174459</v>
+        <v>1626865.01492703</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>1625491.73483906</v>
+        <v>1625975.692645</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>3</v>
@@ -2117,22 +2107,22 @@
         <v>70</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>139.925900936127</v>
+        <v>89.3886699676514</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>1627102.02469257</v>
+        <v>1626251.0117108</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>1619612.23399708</v>
+        <v>1635204.51199271</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>1619036.07223056</v>
+        <v>1634197.41388618</v>
       </c>
       <c r="I67" s="1" t="n">
         <v>3</v>
@@ -2146,22 +2136,22 @@
         <v>70</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>116.377207994461</v>
+        <v>76.0359230041504</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>1627323.03132427</v>
+        <v>1627738.12285283</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>1618049.39211096</v>
+        <v>1628721.12643065</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>1617362.82415393</v>
+        <v>1627114.18212213</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>3</v>
@@ -2175,22 +2165,22 @@
         <v>70</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>129.242002010345</v>
+        <v>127.765673160553</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>1630790.47119947</v>
+        <v>1629756.43541075</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>1616083.48515894</v>
+        <v>1636637.30496668</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>1614891.84662572</v>
+        <v>1635281.21714248</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>3</v>
@@ -2204,22 +2194,22 @@
         <v>70</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>173.678321123123</v>
+        <v>110.189134120941</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>1631566.01687882</v>
+        <v>1627628.66601099</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>1614837.12513422</v>
+        <v>1632155.14524872</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>1613667.82093315</v>
+        <v>1630908.96018186</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>3</v>
@@ -2230,25 +2220,25 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>121.701079845428</v>
+        <v>143.248929023743</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>1627821.20826023</v>
+        <v>1626253.77802926</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>1617414.28119412</v>
+        <v>1635930.92802538</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>1616258.7855803</v>
+        <v>1634714.55077866</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>3</v>
@@ -2262,22 +2252,22 @@
         <v>80</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>125.849045991898</v>
+        <v>112.270910024643</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>1627366.00795632</v>
+        <v>1627302.14720607</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>1618990.58736642</v>
+        <v>1633283.09352763</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>1617379.57851657</v>
+        <v>1631688.09857371</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>3</v>
@@ -2291,22 +2281,22 @@
         <v>80</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>175.511194944382</v>
+        <v>132.361872911453</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>1628793.12854268</v>
+        <v>1625057.97943365</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>1619323.08076973</v>
+        <v>1633267.86017158</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>1617927.7450379</v>
+        <v>1632400.0267834</v>
       </c>
       <c r="I73" s="1" t="n">
         <v>3</v>
@@ -2320,22 +2310,22 @@
         <v>80</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>149.65628695488</v>
+        <v>102.155053853989</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>1627523.87417263</v>
+        <v>1626521.16779646</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>1622263.30475386</v>
+        <v>1640845.07497215</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>1620840.55187485</v>
+        <v>1639505.33366687</v>
       </c>
       <c r="I74" s="1" t="n">
         <v>3</v>
@@ -2349,22 +2339,22 @@
         <v>80</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>120.536406040192</v>
+        <v>102.830939054489</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>1626509.6468288</v>
+        <v>1624775.94904801</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>1620841.85702661</v>
+        <v>1637653.60165302</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>1619538.33578511</v>
+        <v>1636455.48598993</v>
       </c>
       <c r="I75" s="1" t="n">
         <v>3</v>
@@ -2378,22 +2368,22 @@
         <v>80</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>132.826007127762</v>
+        <v>70.2800438404083</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>1627716.24585533</v>
+        <v>1626846.38477225</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>1629418.2386064</v>
+        <v>1626561.85295458</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>1627808.4582756</v>
+        <v>1625406.70319882</v>
       </c>
       <c r="I76" s="1" t="n">
         <v>3</v>
@@ -2407,22 +2397,22 @@
         <v>80</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>142.383620977402</v>
+        <v>110.382452964783</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>1626839.67798667</v>
+        <v>1625152.4881032</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>1619409.05315952</v>
+        <v>1635506.29026357</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>1618560.5841114</v>
+        <v>1634430.49249596</v>
       </c>
       <c r="I77" s="1" t="n">
         <v>3</v>
@@ -2436,22 +2426,22 @@
         <v>80</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>151.313519954681</v>
+        <v>71.2832200527191</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>1626575.9272475</v>
+        <v>1627328.37763733</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>1617743.26066153</v>
+        <v>1628709.96756578</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>1617027.77220506</v>
+        <v>1627093.64609208</v>
       </c>
       <c r="I78" s="1" t="n">
         <v>3</v>
@@ -2465,22 +2455,22 @@
         <v>80</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>188.755849123001</v>
+        <v>159.602128982544</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>1628983.86200868</v>
+        <v>1628821.91380096</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>1615855.26913355</v>
+        <v>1641177.19563417</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>1614577.60107051</v>
+        <v>1640128.15081638</v>
       </c>
       <c r="I79" s="1" t="n">
         <v>3</v>
@@ -2494,22 +2484,22 @@
         <v>80</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>184.186497926712</v>
+        <v>106.565531015396</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>1629773.3891866</v>
+        <v>1627224.30200229</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>1615251.73959982</v>
+        <v>1638674.20112584</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>1614483.54750774</v>
+        <v>1637108.99504445</v>
       </c>
       <c r="I80" s="1" t="n">
         <v>3</v>
@@ -2520,25 +2510,25 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>172.908194065094</v>
+        <v>141.143680810928</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>1627695.73619708</v>
+        <v>1625949.16999388</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>1617678.9151652</v>
+        <v>1636195.13197022</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>1616208.29241714</v>
+        <v>1634853.38664837</v>
       </c>
       <c r="I81" s="1" t="n">
         <v>3</v>
@@ -2552,22 +2542,22 @@
         <v>90</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>124.782939910889</v>
+        <v>123.794172048569</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>1628274.18609266</v>
+        <v>1625499.69749418</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>1618805.60278073</v>
+        <v>1634239.00364824</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>1617194.94340219</v>
+        <v>1633584.27555226</v>
       </c>
       <c r="I82" s="1" t="n">
         <v>3</v>
@@ -2581,22 +2571,22 @@
         <v>90</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>133.122977972031</v>
+        <v>113.103627204895</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>1627079.51459931</v>
+        <v>1624017.25578452</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>1619323.47909363</v>
+        <v>1634609.58500236</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>1618234.13512931</v>
+        <v>1633430.50941796</v>
       </c>
       <c r="I83" s="1" t="n">
         <v>3</v>
@@ -2610,22 +2600,22 @@
         <v>90</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>133.904450178146</v>
+        <v>98.9309730529785</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>1626796.28069166</v>
+        <v>1626160.48924043</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>1622341.00812078</v>
+        <v>1640460.20134261</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>1621566.85926071</v>
+        <v>1639311.5876272</v>
       </c>
       <c r="I84" s="1" t="n">
         <v>3</v>
@@ -2639,22 +2629,22 @@
         <v>90</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>180.716815948486</v>
+        <v>113.612845182419</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>1626279.24462462</v>
+        <v>1624021.16315239</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>1619959.79623875</v>
+        <v>1637316.96569463</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>1619444.36361656</v>
+        <v>1636716.7916615</v>
       </c>
       <c r="I85" s="1" t="n">
         <v>3</v>
@@ -2668,22 +2658,22 @@
         <v>90</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>126.112447977066</v>
+        <v>100.199414014816</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>1625141.51056111</v>
+        <v>1625282.11067572</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>1628780.02921333</v>
+        <v>1628079.11029298</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>1627630.51013294</v>
+        <v>1627254.62219451</v>
       </c>
       <c r="I86" s="1" t="n">
         <v>3</v>
@@ -2697,22 +2687,22 @@
         <v>90</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>142.648152112961</v>
+        <v>104.975646972656</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>1626235.02337656</v>
+        <v>1625448.57806326</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>1621380.54398253</v>
+        <v>1636205.67842912</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>1620606.4187859</v>
+        <v>1635116.80155161</v>
       </c>
       <c r="I87" s="1" t="n">
         <v>3</v>
@@ -2726,22 +2716,22 @@
         <v>90</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>158.065449953079</v>
+        <v>107.719912052155</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>1627954.55698697</v>
+        <v>1627930.64095015</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>1617577.61144761</v>
+        <v>1630915.79482295</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>1616829.1952296</v>
+        <v>1629863.61445737</v>
       </c>
       <c r="I88" s="1" t="n">
         <v>3</v>
@@ -2755,22 +2745,22 @@
         <v>90</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>244.748445034027</v>
+        <v>82.7768549919128</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>1629542.82200134</v>
+        <v>1629208.76713786</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>1617109.17707483</v>
+        <v>1638289.7656424</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>1615528.61295993</v>
+        <v>1636943.0883297</v>
       </c>
       <c r="I89" s="1" t="n">
         <v>3</v>
@@ -2784,22 +2774,22 @@
         <v>90</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>145.098900079727</v>
+        <v>127.885355949402</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>1629278.64101203</v>
+        <v>1626386.10896734</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>1616514.99623157</v>
+        <v>1638466.99022248</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>1614907.08940482</v>
+        <v>1637220.51627737</v>
       </c>
       <c r="I90" s="1" t="n">
         <v>3</v>
@@ -2810,25 +2800,25 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>170.21013712883</v>
+        <v>211.512711048126</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>1625984.55990149</v>
+        <v>1627606.65334274</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>1618062.30619113</v>
+        <v>1636378.33321739</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>1617133.44111749</v>
+        <v>1634803.10099417</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>3</v>
@@ -2842,22 +2832,22 @@
         <v>100</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>159.837922096252</v>
+        <v>124.019305944443</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>1627491.4797864</v>
+        <v>1625677.96957893</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>1620019.73886071</v>
+        <v>1635797.80735202</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>1618455.98437299</v>
+        <v>1634747.37457634</v>
       </c>
       <c r="I92" s="1" t="n">
         <v>3</v>
@@ -2871,22 +2861,22 @@
         <v>100</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>129.862133026123</v>
+        <v>163.6828789711</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>1626739.92375608</v>
+        <v>1624114.67744556</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>1620663.05919595</v>
+        <v>1634843.81470126</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>1619058.63132086</v>
+        <v>1633544.40011478</v>
       </c>
       <c r="I93" s="1" t="n">
         <v>3</v>
@@ -2900,22 +2890,22 @@
         <v>100</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>177.361634969711</v>
+        <v>158.09645986557</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>1626113.04119039</v>
+        <v>1624824.66954643</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>1624259.03602192</v>
+        <v>1641683.09160546</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>1623064.84597004</v>
+        <v>1640547.29654897</v>
       </c>
       <c r="I94" s="1" t="n">
         <v>3</v>
@@ -2929,22 +2919,22 @@
         <v>100</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>172.777677774429</v>
+        <v>174.331033945084</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>1626328.30337767</v>
+        <v>1623740.71887618</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>1621809.64156488</v>
+        <v>1637969.5129454</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>1620190.71369762</v>
+        <v>1637041.03698869</v>
       </c>
       <c r="I95" s="1" t="n">
         <v>3</v>
@@ -2958,22 +2948,22 @@
         <v>100</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>171.134970188141</v>
+        <v>187.823822975159</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>1625541.50860223</v>
+        <v>1625188.89692304</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>1629462.88150982</v>
+        <v>1628798.71882356</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>1628353.75923714</v>
+        <v>1627244.95518701</v>
       </c>
       <c r="I96" s="1" t="n">
         <v>3</v>
@@ -2987,22 +2977,22 @@
         <v>100</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>216.219841957092</v>
+        <v>110.805106878281</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>1626216.90718916</v>
+        <v>1624655.59367285</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>1621267.09963138</v>
+        <v>1636052.39813721</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>1620003.07373791</v>
+        <v>1634418.96117882</v>
       </c>
       <c r="I97" s="1" t="n">
         <v>3</v>
@@ -3016,22 +3006,22 @@
         <v>100</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>189.35479593277</v>
+        <v>145.489764928818</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>1627462.30826826</v>
+        <v>1626671.90900808</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>1617579.50881371</v>
+        <v>1630657.3051108</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>1616665.48109551</v>
+        <v>1629863.35558148</v>
       </c>
       <c r="I98" s="1" t="n">
         <v>3</v>
@@ -3045,22 +3035,22 @@
         <v>100</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>196.598020076752</v>
+        <v>140.325433969498</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>1627436.90139255</v>
+        <v>1627618.3794881</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>1617159.9948343</v>
+        <v>1639512.52123076</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>1616139.39900713</v>
+        <v>1638626.88199135</v>
       </c>
       <c r="I99" s="1" t="n">
         <v>3</v>
@@ -3074,1558 +3064,230 @@
         <v>100</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>153.340445041656</v>
+        <v>157.481893062592</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>1629168.82164403</v>
+        <v>1625583.97170459</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>1616899.18206028</v>
+        <v>1638715.95840787</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>1615594.12728956</v>
+        <v>1637323.57259091</v>
       </c>
       <c r="I100" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C101" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D101" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E101" s="1" t="n">
-        <v>175.598660945892</v>
-      </c>
-      <c r="F101" s="1" t="n">
-        <v>1626863.41454037</v>
-      </c>
-      <c r="G101" s="1" t="n">
-        <v>1619401.69157849</v>
-      </c>
-      <c r="H101" s="1" t="n">
-        <v>1618022.86233585</v>
-      </c>
-      <c r="I101" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-    </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-    </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-    </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-    </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-    </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-    </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-    </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-    </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-    </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-    </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-    </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-    </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-    </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-    </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-    </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-    </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:I601"/>
+  <autoFilter ref="A1:I100"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4642,10 +3304,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I401"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I196" activeCellId="0" sqref="I196"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4693,16 +3355,16 @@
         <v>0.8</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>77.6311140060425</v>
+        <v>30.0145127773285</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1743623.51832121</v>
+        <v>1673842.78619794</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1599084.08824044</v>
+        <v>1619152.8729342</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1598194.32425297</v>
+        <v>1618410.72200158</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>3</v>
@@ -4722,16 +3384,16 @@
         <v>0.8</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>41.9790449142456</v>
+        <v>22.4122231006622</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1697721.54382514</v>
+        <v>1758829.19476432</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1604166.86222912</v>
+        <v>1603399.19232753</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1602594.48440375</v>
+        <v>1602158.74628574</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>3</v>
@@ -4751,16 +3413,16 @@
         <v>0.8</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>28.3887650966644</v>
+        <v>29.2387640476227</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1744437.04314252</v>
+        <v>1694294.16393145</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1597958.82729838</v>
+        <v>1616838.98397164</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>1596372.59472103</v>
+        <v>1615664.28807273</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>3</v>
@@ -4780,16 +3442,16 @@
         <v>0.8</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>40.1585550308228</v>
+        <v>34.2128269672394</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1712862.82298742</v>
+        <v>1681767.16380242</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1603310.59852838</v>
+        <v>1613654.51382062</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>1601723.23047141</v>
+        <v>1612151.12605766</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>3</v>
@@ -4809,16 +3471,16 @@
         <v>0.8</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>36.4509871006012</v>
+        <v>28.7515590190887</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1671019.98965098</v>
+        <v>1722091.91929662</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>1611814.67594934</v>
+        <v>1618763.2958089</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>1610298.00869718</v>
+        <v>1617154.83183656</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>3</v>
@@ -4838,16 +3500,16 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>41.2260999679565</v>
+        <v>51.4267950057983</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1686478.3983018</v>
+        <v>1671142.61160573</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1610407.59387491</v>
+        <v>1610777.29797663</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>1609016.17251186</v>
+        <v>1610253.97599496</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>3</v>
@@ -4867,16 +3529,16 @@
         <v>0.8</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>35.1445779800415</v>
+        <v>54.7190628051758</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1703098.22830395</v>
+        <v>1723785.7762453</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1601658.54469285</v>
+        <v>1605897.68838714</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>1600069.86014695</v>
+        <v>1605529.29854032</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>3</v>
@@ -4896,16 +3558,16 @@
         <v>0.8</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>76.2473618984222</v>
+        <v>51.7369329929352</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1699295.16928219</v>
+        <v>1698824.42372206</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1611052.93389019</v>
+        <v>1606919.3100388</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>1610549.28549395</v>
+        <v>1605318.37725939</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>3</v>
@@ -4925,16 +3587,16 @@
         <v>0.8</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>39.567008972168</v>
+        <v>61.2520952224731</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1732483.70016662</v>
+        <v>1761182.67099658</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1605944.8344653</v>
+        <v>1612307.61140797</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>1604378.35322682</v>
+        <v>1611422.76451881</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>3</v>
@@ -4954,16 +3616,16 @@
         <v>0.8</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>64.8636498451233</v>
+        <v>28.822361946106</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1665849.40392668</v>
+        <v>1706053.56093049</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1612298.4934628</v>
+        <v>1616967.42686629</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>1610723.65833523</v>
+        <v>1615723.89851015</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>3</v>
@@ -4983,16 +3645,16 @@
         <v>0.8</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>71.7713618278503</v>
+        <v>44.6239440441132</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1654584.17755085</v>
+        <v>1644209.66928785</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1607798.85699973</v>
+        <v>1629642.10207211</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>1606362.66952388</v>
+        <v>1628112.42903439</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>3</v>
@@ -5012,16 +3674,16 @@
         <v>0.8</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>57.6574358940125</v>
+        <v>77.3623080253601</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1660984.55301097</v>
+        <v>1658269.7013093</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1607358.81990271</v>
+        <v>1614628.84040619</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>1606002.78007711</v>
+        <v>1613755.45913981</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>3</v>
@@ -5041,16 +3703,16 @@
         <v>0.8</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>81.4490509033203</v>
+        <v>48.3687880039215</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1647969.90136166</v>
+        <v>1656022.54391872</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1611628.05966229</v>
+        <v>1621271.92432367</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>1610802.76343864</v>
+        <v>1620655.65922063</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>3</v>
@@ -5070,16 +3732,16 @@
         <v>0.8</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>55.3128941059113</v>
+        <v>45.2374160289764</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1653214.87111809</v>
+        <v>1647344.84251008</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1606988.63634767</v>
+        <v>1619495.08963</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>1605407.6057901</v>
+        <v>1618767.64708975</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>3</v>
@@ -5099,16 +3761,16 @@
         <v>0.8</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>90.0052931308746</v>
+        <v>32.7281808853149</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1646355.25640516</v>
+        <v>1650650.92892771</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1614736.54381437</v>
+        <v>1632395.74166063</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1613954.80652908</v>
+        <v>1631204.27770278</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>3</v>
@@ -5128,16 +3790,16 @@
         <v>0.8</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>66.2271270751953</v>
+        <v>58.1483919620514</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1665050.73849248</v>
+        <v>1643968.84645477</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1609521.30548832</v>
+        <v>1617331.93579495</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1608300.60097843</v>
+        <v>1616004.1330259</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>3</v>
@@ -5157,16 +3819,16 @@
         <v>0.8</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>83.2649571895599</v>
+        <v>40.2795548439026</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>1652295.2147775</v>
+        <v>1669881.38243214</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1611726.94434882</v>
+        <v>1625509.02649036</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1610619.62323981</v>
+        <v>1623994.82514948</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>3</v>
@@ -5186,16 +3848,16 @@
         <v>0.8</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>90.1463859081268</v>
+        <v>68.2051701545715</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>1656639.27644741</v>
+        <v>1666436.82960185</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>1612399.73939712</v>
+        <v>1614903.14829939</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>1610846.88591826</v>
+        <v>1613819.14117136</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>3</v>
@@ -5215,16 +3877,16 @@
         <v>0.8</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>73.8883240222931</v>
+        <v>32.4919810295105</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>1676636.41916104</v>
+        <v>1647584.24465119</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1610132.22133115</v>
+        <v>1621152.1736489</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>1609266.0996904</v>
+        <v>1620081.11448757</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>3</v>
@@ -5244,16 +3906,16 @@
         <v>0.8</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>52.3542039394379</v>
+        <v>64.3246328830719</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>1639945.27068766</v>
+        <v>1668524.55191172</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>1610112.06330813</v>
+        <v>1623147.42409277</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>1609425.38936977</v>
+        <v>1621570.2773546</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>3</v>
@@ -5273,16 +3935,16 @@
         <v>0.8</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>84.1059451103211</v>
+        <v>43.9949028491974</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1639543.79095454</v>
+        <v>1637385.00494817</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>1611868.53233407</v>
+        <v>1631116.46399957</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>1610466.21035802</v>
+        <v>1629825.77476156</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>3</v>
@@ -5302,16 +3964,16 @@
         <v>0.8</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>101.916738033295</v>
+        <v>81.7765350341797</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>1647378.05989187</v>
+        <v>1652990.54487982</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>1611546.72779465</v>
+        <v>1621635.16752096</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>1610418.1441998</v>
+        <v>1620050.41577296</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>3</v>
@@ -5331,16 +3993,16 @@
         <v>0.8</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>76.5151810646057</v>
+        <v>54.217710018158</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>1642586.12791134</v>
+        <v>1644779.59790816</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>1612769.38349024</v>
+        <v>1624481.56436102</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1611208.05851724</v>
+        <v>1623581.40710635</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>3</v>
@@ -5360,16 +4022,16 @@
         <v>0.8</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>86.4090638160706</v>
+        <v>65.0550019741058</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>1640191.12950716</v>
+        <v>1633268.57348448</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>1615888.28119374</v>
+        <v>1634853.77212248</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>1615166.99554483</v>
+        <v>1633434.72110392</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>3</v>
@@ -5389,16 +4051,16 @@
         <v>0.8</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>117.743631839752</v>
+        <v>89.2767989635468</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>1637934.77735085</v>
+        <v>1637667.85456333</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>1619407.23171529</v>
+        <v>1631994.30213142</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1618373.01800057</v>
+        <v>1631208.97890298</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>3</v>
@@ -5418,16 +4080,16 @@
         <v>0.8</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>111.754189014435</v>
+        <v>65.3852550983429</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>1652156.00302022</v>
+        <v>1639498.15157094</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>1609897.31239239</v>
+        <v>1625361.92556403</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>1608291.66380117</v>
+        <v>1623770.18607449</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>3</v>
@@ -5447,16 +4109,16 @@
         <v>0.8</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>75.7948031425476</v>
+        <v>48.6920230388641</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1648457.51684832</v>
+        <v>1644910.39645345</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1613505.61788743</v>
+        <v>1626101.14352711</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>1612631.31652612</v>
+        <v>1624536.14092466</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>3</v>
@@ -5476,16 +4138,16 @@
         <v>0.8</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>70.9435548782349</v>
+        <v>83.8026418685913</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>1643984.9069365</v>
+        <v>1646885.46138924</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>1614509.94511361</v>
+        <v>1623860.86692874</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>1613009.77710714</v>
+        <v>1623038.37453484</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>3</v>
@@ -5505,16 +4167,16 @@
         <v>0.8</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>104.954337120056</v>
+        <v>72.7404849529266</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>1650198.13044285</v>
+        <v>1637240.81337125</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>1611847.79144441</v>
+        <v>1622557.45091798</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>1611091.52255748</v>
+        <v>1621850.35789308</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>3</v>
@@ -5534,16 +4196,16 @@
         <v>0.8</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>92.7953190803528</v>
+        <v>77.1013000011444</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>1635441.28793767</v>
+        <v>1654423.07074675</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>1609998.60477088</v>
+        <v>1622093.58221309</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>1608526.36099305</v>
+        <v>1621488.25940247</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>3</v>
@@ -5563,16 +4225,16 @@
         <v>0.8</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>114.555485963821</v>
+        <v>81.0039830207825</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>1629668.69006079</v>
+        <v>1637891.29197472</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>1616289.88762229</v>
+        <v>1632914.36373091</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>1614990.2551552</v>
+        <v>1631841.05398415</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>3</v>
@@ -5592,16 +4254,16 @@
         <v>0.8</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>89.0347099304199</v>
+        <v>81.9501268863678</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>1641113.36068192</v>
+        <v>1638161.30739555</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>1614284.29536399</v>
+        <v>1625973.58656156</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>1613347.60751463</v>
+        <v>1625046.88560445</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>3</v>
@@ -5621,16 +4283,16 @@
         <v>0.8</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>103.540885210037</v>
+        <v>57.5048468112946</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>1634387.49538143</v>
+        <v>1635741.22805402</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>1616826.29824682</v>
+        <v>1624644.92248585</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>1615533.85309512</v>
+        <v>1623033.84084967</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>3</v>
@@ -5650,16 +4312,16 @@
         <v>0.8</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>106.956905126572</v>
+        <v>105.902202129364</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>1637298.33677174</v>
+        <v>1630611.1877319</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>1616329.46930853</v>
+        <v>1635274.642098</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>1615755.02803186</v>
+        <v>1633699.50046436</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>3</v>
@@ -5679,16 +4341,16 @@
         <v>0.8</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>72.7935428619385</v>
+        <v>94.7561061382294</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>1631474.15810212</v>
+        <v>1631612.39585405</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>1621080.21595794</v>
+        <v>1637497.72929788</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>1619513.14970532</v>
+        <v>1636394.34709954</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>3</v>
@@ -5708,16 +4370,16 @@
         <v>0.8</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>111.654763936996</v>
+        <v>99.1886157989502</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>1635170.11160711</v>
+        <v>1635852.83621688</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>1611733.48293259</v>
+        <v>1623553.12023951</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>1611110.16652873</v>
+        <v>1622249.04503374</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>3</v>
@@ -5737,16 +4399,16 @@
         <v>0.8</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>80.0952751636505</v>
+        <v>53.6073560714722</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>1632898.27732176</v>
+        <v>1639557.79542314</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>1614927.71312134</v>
+        <v>1627715.63079549</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>1613691.06766143</v>
+        <v>1626742.28401976</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>3</v>
@@ -5766,16 +4428,16 @@
         <v>0.8</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>118.824662923813</v>
+        <v>51.7884869575501</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>1639509.76099586</v>
+        <v>1642546.64411455</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>1613729.44934504</v>
+        <v>1624269.10753608</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>1612127.68986936</v>
+        <v>1623120.85416134</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>3</v>
@@ -5795,16 +4457,16 @@
         <v>0.8</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>95.2176711559296</v>
+        <v>51.0382390022278</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>1644900.80639785</v>
+        <v>1635834.55456172</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>1610150.75029973</v>
+        <v>1622280.85786326</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>1608955.92280069</v>
+        <v>1621657.30676396</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>3</v>
@@ -5824,16 +4486,16 @@
         <v>0.8</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>64.769593000412</v>
+        <v>75.0001499652863</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>1631530.18784997</v>
+        <v>1641736.37307012</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>1611077.50873712</v>
+        <v>1627076.03305698</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>1609577.69327871</v>
+        <v>1626003.93856259</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>3</v>
@@ -5853,16 +4515,16 @@
         <v>0.8</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>133.27206993103</v>
+        <v>57.945827960968</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>1628199.33292971</v>
+        <v>1630039.49627106</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>1618116.17381463</v>
+        <v>1637350.67040437</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>1616675.11525055</v>
+        <v>1636234.85846187</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>3</v>
@@ -5882,16 +4544,16 @@
         <v>0.8</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>81.4802451133728</v>
+        <v>112.074593067169</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>1635020.57934608</v>
+        <v>1638466.48546623</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>1616872.41195268</v>
+        <v>1627896.18719486</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>1615482.37838558</v>
+        <v>1626522.65938994</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>3</v>
@@ -5911,16 +4573,16 @@
         <v>0.8</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>116.357532978058</v>
+        <v>100.061491966248</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>1633880.30445044</v>
+        <v>1631928.15332928</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>1617849.73382473</v>
+        <v>1630743.08641406</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>1616338.3030441</v>
+        <v>1630102.00133723</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>3</v>
@@ -5940,16 +4602,16 @@
         <v>0.8</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>137.948842048645</v>
+        <v>427.019828081131</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>1630953.2570913</v>
+        <v>1627901.26110555</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>1618573.82104674</v>
+        <v>1635022.18642736</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>1618148.75242996</v>
+        <v>1633560.43368132</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>3</v>
@@ -5969,16 +4631,16 @@
         <v>0.8</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>122.214679956436</v>
+        <v>134.744302034378</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>1631837.94349911</v>
+        <v>1627520.09537195</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>1621471.31845337</v>
+        <v>1638113.97180468</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>1619923.41255635</v>
+        <v>1636643.64686504</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>3</v>
@@ -5998,16 +4660,16 @@
         <v>0.8</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>68.300253868103</v>
+        <v>61.5396180152893</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>1631340.27937848</v>
+        <v>1630231.44642147</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>1618103.86049584</v>
+        <v>1625781.56673508</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>1616599.64166406</v>
+        <v>1624175.45228618</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>3</v>
@@ -6027,16 +4689,16 @@
         <v>0.8</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>183.207410812378</v>
+        <v>47.0514929294586</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>1632254.28895296</v>
+        <v>1637848.38525835</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>1617564.00626471</v>
+        <v>1626601.20635673</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>1616303.37006651</v>
+        <v>1624979.43572566</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>3</v>
@@ -6056,16 +4718,16 @@
         <v>0.8</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>145.428630113602</v>
+        <v>61.6335868835449</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>1635134.2959164</v>
+        <v>1632037.09099934</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>1613205.54005848</v>
+        <v>1627777.08295869</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>1611947.55554423</v>
+        <v>1626206.50370206</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>3</v>
@@ -6085,16 +4747,16 @@
         <v>0.8</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>125.027213096619</v>
+        <v>63.0974159240723</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>1637442.21971274</v>
+        <v>1631213.36688228</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>1613418.72450005</v>
+        <v>1634791.74738474</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>1612543.7114069</v>
+        <v>1633469.50444052</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>3</v>
@@ -6114,16 +4776,16 @@
         <v>0.8</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>93.2818598747253</v>
+        <v>98.5086529254913</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>1629113.0908152</v>
+        <v>1633262.68231876</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>1613221.07735697</v>
+        <v>1630319.91124687</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>1612299.46514251</v>
+        <v>1628703.79174391</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>3</v>
@@ -6143,16 +4805,16 @@
         <v>0.8</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>160.564187049866</v>
+        <v>104.440615177155</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>1628859.18895245</v>
+        <v>1629908.62444594</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>1617308.77239258</v>
+        <v>1636763.95240119</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>1616363.95603949</v>
+        <v>1635128.58820899</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>3</v>
@@ -6172,16 +4834,16 @@
         <v>0.8</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>98.7981119155884</v>
+        <v>101.952230930328</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>1633029.83470719</v>
+        <v>1632211.01200733</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>1618346.50997882</v>
+        <v>1631203.50248674</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1616859.13984682</v>
+        <v>1630264.47767549</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>3</v>
@@ -6201,16 +4863,16 @@
         <v>0.8</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>120.989398002625</v>
+        <v>121.61994099617</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>1629257.82803094</v>
+        <v>1627926.18306213</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>1621364.92008288</v>
+        <v>1631615.6351926</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>1620663.88048634</v>
+        <v>1630139.89937275</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>3</v>
@@ -6230,16 +4892,16 @@
         <v>0.8</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>93.0374050140381</v>
+        <v>85.5950419902802</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>1629887.93109259</v>
+        <v>1628103.52246034</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>1620011.81693344</v>
+        <v>1634553.77734767</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>1618560.95745337</v>
+        <v>1633501.71712842</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>3</v>
@@ -6259,16 +4921,16 @@
         <v>0.8</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>103.054383993149</v>
+        <v>100.933815002441</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>1628524.17738956</v>
+        <v>1626033.94999148</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>1622184.44765026</v>
+        <v>1637628.50062212</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>1620953.21842044</v>
+        <v>1636337.6356553</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>3</v>
@@ -6288,16 +4950,16 @@
         <v>0.8</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>99.2995021343231</v>
+        <v>52.6760470867157</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>1628257.97073535</v>
+        <v>1627714.41680544</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>1619869.52146431</v>
+        <v>1628093.00814992</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>1618976.311905</v>
+        <v>1626468.54067764</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>3</v>
@@ -6317,16 +4979,16 @@
         <v>0.8</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>176.217480182648</v>
+        <v>64.3504011631012</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>1627429.08603303</v>
+        <v>1632733.84136233</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>1619309.13718872</v>
+        <v>1630471.45603251</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>1618402.89891523</v>
+        <v>1629834.31663741</v>
       </c>
       <c r="I58" s="1" t="n">
         <v>3</v>
@@ -6346,16 +5008,16 @@
         <v>0.8</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>96.7643280029297</v>
+        <v>65.9376339912415</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>1631404.83024841</v>
+        <v>1628780.94297585</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>1614015.38738883</v>
+        <v>1630723.74910641</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>1612897.39889189</v>
+        <v>1629097.7182017</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>3</v>
@@ -6375,16 +5037,16 @@
         <v>0.8</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>140.257495880127</v>
+        <v>89.9526088237763</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>1632350.48666871</v>
+        <v>1629690.09341101</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>1614605.16612508</v>
+        <v>1633966.39906168</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>1613241.57987979</v>
+        <v>1633180.11672884</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>3</v>
@@ -6404,16 +5066,16 @@
         <v>0.8</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>98.7687149047852</v>
+        <v>109.946573019028</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>1630225.39628369</v>
+        <v>1631525.20436243</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>1615799.4618044</v>
+        <v>1631927.3372659</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>1615076.77122593</v>
+        <v>1630714.00363269</v>
       </c>
       <c r="I61" s="1" t="n">
         <v>3</v>
@@ -6433,16 +5095,16 @@
         <v>0.8</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>182.235754966736</v>
+        <v>61.8947238922119</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>1628371.70274132</v>
+        <v>1627785.24927695</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>1617699.13569024</v>
+        <v>1636901.31746367</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>1616888.80973508</v>
+        <v>1635313.3241886</v>
       </c>
       <c r="I62" s="1" t="n">
         <v>3</v>
@@ -6462,16 +5124,16 @@
         <v>0.8</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>107.246243953705</v>
+        <v>91.3241820335388</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>1628728.42844727</v>
+        <v>1631262.395145</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>1618257.37988201</v>
+        <v>1631688.75212179</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>1616693.22408197</v>
+        <v>1630356.09997555</v>
       </c>
       <c r="I63" s="1" t="n">
         <v>3</v>
@@ -6491,16 +5153,16 @@
         <v>0.8</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>113.256639957428</v>
+        <v>146.399538040161</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>1627523.46749139</v>
+        <v>1627812.21221975</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>1623442.45592332</v>
+        <v>1631629.2592115</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>1621819.17980089</v>
+        <v>1630155.94048163</v>
       </c>
       <c r="I64" s="1" t="n">
         <v>3</v>
@@ -6520,16 +5182,16 @@
         <v>0.8</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>115.217472076416</v>
+        <v>126.540740966797</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>1628353.58153124</v>
+        <v>1627697.63032125</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>1620143.23072726</v>
+        <v>1634739.09442206</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>1618902.0241319</v>
+        <v>1633758.04225808</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>3</v>
@@ -6549,16 +5211,16 @@
         <v>0.8</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>111.446840047836</v>
+        <v>106.408619165421</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>1629288.9235586</v>
+        <v>1624392.21560045</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>1626280.8968858</v>
+        <v>1636956.3527463</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>1625700.65974583</v>
+        <v>1636124.69896532</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>3</v>
@@ -6578,16 +5240,16 @@
         <v>0.8</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>149.450409889221</v>
+        <v>113.469393968582</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>1627207.38181131</v>
+        <v>1627045.62797096</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>1619802.63555613</v>
+        <v>1627483.18998403</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>1619158.05550974</v>
+        <v>1626153.22511841</v>
       </c>
       <c r="I67" s="1" t="n">
         <v>3</v>
@@ -6607,16 +5269,16 @@
         <v>0.8</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>118.894752979279</v>
+        <v>80.3031959533691</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>1627662.73313489</v>
+        <v>1627646.22911714</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>1618324.28668897</v>
+        <v>1635511.5702661</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>1617546.40780766</v>
+        <v>1634339.2525302</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>3</v>
@@ -6636,16 +5298,16 @@
         <v>0.8</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>116.875688076019</v>
+        <v>78.6688261032105</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>1631602.65243498</v>
+        <v>1628086.04684925</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>1616416.65209388</v>
+        <v>1629644.78612506</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>1615080.71389063</v>
+        <v>1628057.96554466</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>3</v>
@@ -6665,16 +5327,16 @@
         <v>0.8</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>182.517262935638</v>
+        <v>78.7863321304321</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>1633062.36939037</v>
+        <v>1630151.3029035</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>1614772.49180052</v>
+        <v>1635559.38953205</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>1613731.20045272</v>
+        <v>1633944.18478003</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>3</v>
@@ -6694,16 +5356,16 @@
         <v>0.8</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>148.376009941101</v>
+        <v>122.340944051743</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>1628067.74276186</v>
+        <v>1628981.31421042</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>1617811.25933305</v>
+        <v>1631533.68148116</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>1616594.79700682</v>
+        <v>1630467.20076305</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>3</v>
@@ -6723,16 +5385,16 @@
         <v>0.8</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>189.498519897461</v>
+        <v>150.908377885818</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>1627236.25861797</v>
+        <v>1625904.91554482</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>1618366.99946287</v>
+        <v>1636135.06884983</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>1617830.00169542</v>
+        <v>1635045.23057195</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>3</v>
@@ -6752,16 +5414,16 @@
         <v>0.8</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>96.195100069046</v>
+        <v>96.8086709976196</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>1627488.44819299</v>
+        <v>1628664.89970793</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>1619077.58976159</v>
+        <v>1633181.1613569</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>1617825.59080329</v>
+        <v>1631764.38596069</v>
       </c>
       <c r="I73" s="1" t="n">
         <v>3</v>
@@ -6781,16 +5443,16 @@
         <v>0.8</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>126.82323718071</v>
+        <v>117.6345038414</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>1627862.03278909</v>
+        <v>1625562.66238178</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>1622355.69505838</v>
+        <v>1633407.26980698</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>1620744.13093517</v>
+        <v>1632514.95104151</v>
       </c>
       <c r="I74" s="1" t="n">
         <v>3</v>
@@ -6810,16 +5472,16 @@
         <v>0.8</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>127.513128042221</v>
+        <v>114.084810972214</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>1626781.55675834</v>
+        <v>1627054.0000898</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>1621244.11385371</v>
+        <v>1640977.11009701</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>1619818.99185782</v>
+        <v>1639961.03529188</v>
       </c>
       <c r="I75" s="1" t="n">
         <v>3</v>
@@ -6839,16 +5501,16 @@
         <v>0.8</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>123.596806049347</v>
+        <v>125.049880027771</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>1626751.13002538</v>
+        <v>1625265.1943829</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>1629109.62887628</v>
+        <v>1638507.88412698</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>1627946.71966587</v>
+        <v>1636881.32988966</v>
       </c>
       <c r="I76" s="1" t="n">
         <v>3</v>
@@ -6868,16 +5530,16 @@
         <v>0.8</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>126.111083030701</v>
+        <v>111.310924053192</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>1627570.02350283</v>
+        <v>1626654.31473798</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>1620019.50533942</v>
+        <v>1626363.71191935</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>1618735.99412586</v>
+        <v>1625774.8899952</v>
       </c>
       <c r="I77" s="1" t="n">
         <v>3</v>
@@ -6897,16 +5559,16 @@
         <v>0.8</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>159.905788183212</v>
+        <v>110.727515935898</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>1627157.41396696</v>
+        <v>1625927.00498283</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>1618286.26491113</v>
+        <v>1636086.43452462</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>1617236.65336267</v>
+        <v>1634900.24322079</v>
       </c>
       <c r="I78" s="1" t="n">
         <v>3</v>
@@ -6926,16 +5588,16 @@
         <v>0.8</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>130.05468082428</v>
+        <v>82.9715220928192</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>1629872.70058959</v>
+        <v>1628830.36973701</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>1616132.43375807</v>
+        <v>1630291.29414865</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>1614550.67448499</v>
+        <v>1628684.35602737</v>
       </c>
       <c r="I79" s="1" t="n">
         <v>3</v>
@@ -6955,16 +5617,16 @@
         <v>0.8</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>99.1867990493774</v>
+        <v>125.535079956055</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>1630337.78926774</v>
+        <v>1628225.59305627</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>1615615.18722661</v>
+        <v>1641485.28233021</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>1614307.68381853</v>
+        <v>1640615.59039146</v>
       </c>
       <c r="I80" s="1" t="n">
         <v>3</v>
@@ -6984,16 +5646,16 @@
         <v>0.8</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>120.584828138351</v>
+        <v>121.737619161606</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>1625979.48525165</v>
+        <v>1627009.09192239</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>1617269.650061</v>
+        <v>1639060.49039798</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>1616114.43829707</v>
+        <v>1637473.43140994</v>
       </c>
       <c r="I81" s="1" t="n">
         <v>3</v>
@@ -7013,16 +5675,16 @@
         <v>0.8</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>206.022562026978</v>
+        <v>140.049707889557</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>1627341.14687493</v>
+        <v>1626015.46203693</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>1618491.06737426</v>
+        <v>1636239.91728767</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>1617687.86188891</v>
+        <v>1635360.93295948</v>
       </c>
       <c r="I82" s="1" t="n">
         <v>3</v>
@@ -7042,16 +5704,16 @@
         <v>0.8</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>111.679357051849</v>
+        <v>93.9763250350952</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>1627398.46580393</v>
+        <v>1626273.74935252</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>1619825.10060811</v>
+        <v>1634324.7812091</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>1618371.01427823</v>
+        <v>1633187.95293234</v>
       </c>
       <c r="I83" s="1" t="n">
         <v>3</v>
@@ -7071,16 +5733,16 @@
         <v>0.8</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>120.294523000717</v>
+        <v>140.488431930542</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>1626893.88048825</v>
+        <v>1624786.99736505</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>1622675.94325821</v>
+        <v>1635375.78677303</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>1621646.15782493</v>
+        <v>1633840.41847956</v>
       </c>
       <c r="I84" s="1" t="n">
         <v>3</v>
@@ -7100,16 +5762,16 @@
         <v>0.8</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>167.125610113144</v>
+        <v>159.255815029144</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>1625582.61947167</v>
+        <v>1624369.56467513</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>1620326.61995368</v>
+        <v>1640813.47030109</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>1619660.45466658</v>
+        <v>1639859.95803072</v>
       </c>
       <c r="I85" s="1" t="n">
         <v>3</v>
@@ -7129,16 +5791,16 @@
         <v>0.8</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>117.67854809761</v>
+        <v>115.606757164001</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>1625413.77798158</v>
+        <v>1623938.57657469</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>1629142.23282804</v>
+        <v>1638400.05869911</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>1627846.98502967</v>
+        <v>1637176.90184492</v>
       </c>
       <c r="I86" s="1" t="n">
         <v>3</v>
@@ -7158,16 +5820,16 @@
         <v>0.8</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>147.294651985168</v>
+        <v>81.1606409549713</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>1626623.22944718</v>
+        <v>1625281.19655154</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>1621301.13756603</v>
+        <v>1628683.07202786</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>1620809.8933933</v>
+        <v>1627223.57434193</v>
       </c>
       <c r="I87" s="1" t="n">
         <v>3</v>
@@ -7187,16 +5849,16 @@
         <v>0.8</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>124.002012968063</v>
+        <v>111.517572879791</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>1627653.10045482</v>
+        <v>1626342.42132596</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>1618214.36681952</v>
+        <v>1637049.28680351</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>1616702.10929172</v>
+        <v>1635446.03519001</v>
       </c>
       <c r="I88" s="1" t="n">
         <v>3</v>
@@ -7216,16 +5878,16 @@
         <v>0.8</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>244.816166877747</v>
+        <v>120.605017900467</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>1626696.72017387</v>
+        <v>1627880.76038874</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>1616907.72008202</v>
+        <v>1631310.23199201</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>1615724.01909389</v>
+        <v>1630022.62756793</v>
       </c>
       <c r="I89" s="1" t="n">
         <v>3</v>
@@ -7245,16 +5907,16 @@
         <v>0.8</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>144.255817890167</v>
+        <v>143.036700963974</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>1630997.85499893</v>
+        <v>1629080.57073996</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>1616619.72118784</v>
+        <v>1640659.70479567</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>1615061.38451102</v>
+        <v>1639642.42034977</v>
       </c>
       <c r="I90" s="1" t="n">
         <v>3</v>
@@ -7274,16 +5936,16 @@
         <v>0.8</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>183.70991897583</v>
+        <v>85.2327439785004</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>1626446.25484026</v>
+        <v>1626312.19932743</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>1618667.41834215</v>
+        <v>1639042.42527031</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>1617550.2199611</v>
+        <v>1637423.37376647</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>3</v>
@@ -7303,16 +5965,16 @@
         <v>0.8</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>179.292293071747</v>
+        <v>195.26090502739</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>1628128.27590185</v>
+        <v>1626373.35322035</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>1619449.24371971</v>
+        <v>1636490.59773097</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>1618680.04447805</v>
+        <v>1635202.08967517</v>
       </c>
       <c r="I92" s="1" t="n">
         <v>3</v>
@@ -7332,16 +5994,16 @@
         <v>0.8</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>167.890470027924</v>
+        <v>163.309470176697</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>1626577.17156285</v>
+        <v>1625988.20682437</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>1620706.05520321</v>
+        <v>1636794.08001644</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>1619472.01603663</v>
+        <v>1635160.07053205</v>
       </c>
       <c r="I93" s="1" t="n">
         <v>3</v>
@@ -7361,16 +6023,16 @@
         <v>0.8</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>172.347456932068</v>
+        <v>204.900737047195</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>1626272.35398461</v>
+        <v>1623015.70713543</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>1623947.67549937</v>
+        <v>1634547.45505711</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>1623187.47578376</v>
+        <v>1633154.48988803</v>
       </c>
       <c r="I94" s="1" t="n">
         <v>3</v>
@@ -7390,16 +6052,16 @@
         <v>0.8</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>161.391997814178</v>
+        <v>176.052727937698</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>1627660.62503461</v>
+        <v>1624229.98100756</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>1621988.59882263</v>
+        <v>1642194.49709899</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>1620377.57207459</v>
+        <v>1640949.22311275</v>
       </c>
       <c r="I95" s="1" t="n">
         <v>3</v>
@@ -7419,16 +6081,16 @@
         <v>0.8</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>190.719074964523</v>
+        <v>144.585800886154</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>1625651.09642902</v>
+        <v>1623576.52981916</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>1629652.0172954</v>
+        <v>1638108.70899663</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>1628770.51867872</v>
+        <v>1637496.72321287</v>
       </c>
       <c r="I96" s="1" t="n">
         <v>3</v>
@@ -7448,16 +6110,16 @@
         <v>0.8</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>174.593056917191</v>
+        <v>154.330765962601</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>1626697.65365242</v>
+        <v>1625332.33206645</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>1620868.32496996</v>
+        <v>1628936.61673833</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>1620097.83080765</v>
+        <v>1627424.70531581</v>
       </c>
       <c r="I97" s="1" t="n">
         <v>3</v>
@@ -7477,16 +6139,16 @@
         <v>0.8</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>177.315716028214</v>
+        <v>123.483953952789</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>1627557.00601571</v>
+        <v>1624551.24081323</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>1617526.85329228</v>
+        <v>1636344.61326739</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>1616853.05499876</v>
+        <v>1634733.12365469</v>
       </c>
       <c r="I98" s="1" t="n">
         <v>3</v>
@@ -7506,16 +6168,16 @@
         <v>0.8</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>180.846544981003</v>
+        <v>121.009256124496</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>1627644.02926059</v>
+        <v>1628531.61999388</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>1617642.45926543</v>
+        <v>1631630.63723579</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>1616198.4039234</v>
+        <v>1630013.73350559</v>
       </c>
       <c r="I99" s="1" t="n">
         <v>3</v>
@@ -7535,16 +6197,16 @@
         <v>0.8</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>142.839432954788</v>
+        <v>176.192790985107</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>1627978.66622051</v>
+        <v>1627353.28263892</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>1617058.67617264</v>
+        <v>1640347.20628464</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>1615454.05585992</v>
+        <v>1639641.22232104</v>
       </c>
       <c r="I100" s="1" t="n">
         <v>3</v>
@@ -7564,323 +6226,22 @@
         <v>0.8</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>192.170593976975</v>
+        <v>129.342677116394</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>1626337.27069233</v>
+        <v>1625393.01074226</v>
       </c>
       <c r="G101" s="1" t="n">
-        <v>1619270.18345645</v>
+        <v>1638577.05893483</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>1618334.49909681</v>
+        <v>1637310.85832375</v>
       </c>
       <c r="I101" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:I201"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7888,7 +6249,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7897,10 +6257,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A185" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G202" activeCellId="0" sqref="G202"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7948,16 +6308,16 @@
         <v>0.9</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>44.8495669364929</v>
+        <v>28.6445560455322</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1748589.47174631</v>
+        <v>1675743.66318942</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1599429.13640517</v>
+        <v>1620183.24347224</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1597977.23664406</v>
+        <v>1618902.78594387</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>3</v>
@@ -7977,16 +6337,16 @@
         <v>0.9</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>35.0336408615112</v>
+        <v>24.980681180954</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1695617.0459169</v>
+        <v>1758738.1396106</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1603819.45938834</v>
+        <v>1604957.81315789</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1602269.6769465</v>
+        <v>1603420.6072521</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>3</v>
@@ -8006,16 +6366,16 @@
         <v>0.9</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>43.0745489597321</v>
+        <v>26.1990759372711</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1738008.54009489</v>
+        <v>1708335.76985755</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1597531.76378648</v>
+        <v>1617477.10641175</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>1597038.35023089</v>
+        <v>1616657.69640405</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>3</v>
@@ -8035,16 +6395,16 @@
         <v>0.9</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>32.1016449928284</v>
+        <v>29.1084399223328</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1713789.10941282</v>
+        <v>1682357.81428183</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1604091.86120006</v>
+        <v>1613388.45416113</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>1602575.22516559</v>
+        <v>1612363.58176395</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>3</v>
@@ -8064,16 +6424,16 @@
         <v>0.9</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>44.7908489704132</v>
+        <v>30.6349420547485</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1665113.07162294</v>
+        <v>1722603.95028572</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>1612851.50427514</v>
+        <v>1619847.20015155</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>1611479.88865741</v>
+        <v>1618229.37703779</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>3</v>
@@ -8093,16 +6453,16 @@
         <v>0.9</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>39.6532850265503</v>
+        <v>31.829350233078</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1683087.72785644</v>
+        <v>1671702.375796</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1610216.72529978</v>
+        <v>1611946.11190852</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>1609173.15555188</v>
+        <v>1610389.80932228</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>3</v>
@@ -8122,16 +6482,16 @@
         <v>0.9</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>41.4273459911346</v>
+        <v>24.0846569538116</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1704754.69507692</v>
+        <v>1728640.55591413</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1601250.06800379</v>
+        <v>1607052.56698069</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>1600155.38779801</v>
+        <v>1605621.84044512</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>3</v>
@@ -8151,16 +6511,16 @@
         <v>0.9</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>39.9965269565582</v>
+        <v>23.1295199394226</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1698972.26128076</v>
+        <v>1705291.24550372</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1611986.31595113</v>
+        <v>1606872.81051046</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>1610623.8681957</v>
+        <v>1605392.70071487</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>3</v>
@@ -8180,16 +6540,16 @@
         <v>0.9</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>45.7516238689423</v>
+        <v>28.5797970294952</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1731496.12375616</v>
+        <v>1765996.81361143</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1606339.5967055</v>
+        <v>1612553.13630923</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>1604760.68693343</v>
+        <v>1611736.75462181</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>3</v>
@@ -8209,16 +6569,16 @@
         <v>0.9</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>60.9974949359894</v>
+        <v>30.2526819705963</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1662529.81414621</v>
+        <v>1700625.09789456</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1611796.34876401</v>
+        <v>1618782.80995299</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>1611127.93932049</v>
+        <v>1617232.52252348</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>3</v>
@@ -8238,16 +6598,16 @@
         <v>0.9</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>73.9797990322113</v>
+        <v>56.0286650657654</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1658440.4112401</v>
+        <v>1644862.76808522</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1607847.96944203</v>
+        <v>1628784.66123714</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>1606593.00644758</v>
+        <v>1628276.19427748</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>3</v>
@@ -8267,16 +6627,16 @@
         <v>0.9</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>73.1398949623108</v>
+        <v>57.0419330596924</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1659807.55043853</v>
+        <v>1662907.72215494</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1607787.92119451</v>
+        <v>1615065.59998852</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>1606237.05447895</v>
+        <v>1614244.33735379</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>3</v>
@@ -8296,16 +6656,16 @@
         <v>0.9</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>83.8688101768494</v>
+        <v>44.0133099555969</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1650581.52099373</v>
+        <v>1652704.65831205</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1611928.04439224</v>
+        <v>1622378.91697223</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>1611161.85274717</v>
+        <v>1621345.94654446</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>3</v>
@@ -8325,16 +6685,16 @@
         <v>0.9</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>80.0819518566132</v>
+        <v>96.7175319194794</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1652970.1780676</v>
+        <v>1647520.71544922</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1607298.84940544</v>
+        <v>1620448.54989032</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>1605796.61620552</v>
+        <v>1619140.33004622</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>3</v>
@@ -8354,16 +6714,16 @@
         <v>0.9</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>74.7928018569946</v>
+        <v>50.692892074585</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1645515.89508256</v>
+        <v>1652517.59840823</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1615373.90809953</v>
+        <v>1633187.48604188</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1614512.08291007</v>
+        <v>1632221.72839704</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>3</v>
@@ -8383,16 +6743,16 @@
         <v>0.9</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>70.2292399406433</v>
+        <v>62.7240719795227</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1665097.53500836</v>
+        <v>1644811.28588704</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1609307.75260865</v>
+        <v>1617769.87595496</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1608475.18280553</v>
+        <v>1616798.2497896</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>3</v>
@@ -8412,16 +6772,16 @@
         <v>0.9</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>299.281777858734</v>
+        <v>65.9364938735962</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>1651812.4629987</v>
+        <v>1664050.66605913</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1611573.73287877</v>
+        <v>1625848.68149425</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1609964.95924384</v>
+        <v>1624684.76737421</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>3</v>
@@ -8441,16 +6801,16 @@
         <v>0.9</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>79.0769951343536</v>
+        <v>76.9181859493256</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>1658481.24656801</v>
+        <v>1666950.26140924</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>1612365.6507663</v>
+        <v>1614943.24212997</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>1611281.35247632</v>
+        <v>1614195.73485732</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>3</v>
@@ -8470,16 +6830,16 @@
         <v>0.9</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>81.4538848400116</v>
+        <v>55.0400960445404</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>1678377.89287287</v>
+        <v>1646065.49483816</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1610473.81171642</v>
+        <v>1621026.33178424</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>1609694.94422427</v>
+        <v>1620422.13133046</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>3</v>
@@ -8499,16 +6859,16 @@
         <v>0.9</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>80.9286971092224</v>
+        <v>42.0290050506592</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>1641147.52242061</v>
+        <v>1671441.39848579</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>1610508.56197354</v>
+        <v>1624647.38034495</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>1609789.21721792</v>
+        <v>1623284.70070618</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>3</v>
@@ -8528,16 +6888,16 @@
         <v>0.9</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>100.752612113953</v>
+        <v>78.1687989234924</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1636840.2746673</v>
+        <v>1636489.02000503</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>1611385.86853748</v>
+        <v>1630907.33056657</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>1610789.22344943</v>
+        <v>1629505.16487465</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>3</v>
@@ -8557,16 +6917,16 @@
         <v>0.9</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>73.4470419883728</v>
+        <v>69.3738491535187</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>1645225.74680866</v>
+        <v>1655538.8952232</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>1611420.52405213</v>
+        <v>1622013.95064022</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>1610718.10283348</v>
+        <v>1620521.65666009</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>3</v>
@@ -8586,16 +6946,16 @@
         <v>0.9</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>85.58451795578</v>
+        <v>59.3130621910095</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>1643084.69010464</v>
+        <v>1643932.72203224</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>1613049.8499611</v>
+        <v>1624514.53172821</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1611480.5059835</v>
+        <v>1623976.53345875</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>3</v>
@@ -8615,16 +6975,16 @@
         <v>0.9</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>63.5169110298157</v>
+        <v>84.712494134903</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>1642022.16152864</v>
+        <v>1635218.20394347</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>1616608.66151334</v>
+        <v>1636057.8679904</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>1615296.74267277</v>
+        <v>1634882.55678893</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>3</v>
@@ -8644,16 +7004,16 @@
         <v>0.9</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>89.9509751796722</v>
+        <v>94.071268081665</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>1637136.75868608</v>
+        <v>1637851.43229965</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>1619905.44772035</v>
+        <v>1633010.72111148</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1618609.47249045</v>
+        <v>1631468.56676479</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>3</v>
@@ -8673,16 +7033,16 @@
         <v>0.9</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>91.2288460731506</v>
+        <v>57.3046729564667</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>1651266.46797189</v>
+        <v>1638139.74142247</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>1609448.54461123</v>
+        <v>1625117.11426335</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>1608485.83910938</v>
+        <v>1624251.89955061</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>3</v>
@@ -8702,16 +7062,16 @@
         <v>0.9</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>77.1166648864746</v>
+        <v>49.8575057983399</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1648442.1816959</v>
+        <v>1648667.67602086</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1614031.27895002</v>
+        <v>1626525.1874987</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>1612770.27719739</v>
+        <v>1625159.7775395</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>3</v>
@@ -8731,16 +7091,16 @@
         <v>0.9</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>92.7609949111939</v>
+        <v>65.3836150169373</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>1643600.98084348</v>
+        <v>1646749.00188339</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>1614772.98472406</v>
+        <v>1624731.92009143</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>1613252.88857565</v>
+        <v>1623705.28007708</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>3</v>
@@ -8760,16 +7120,16 @@
         <v>0.9</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>70.14284491539</v>
+        <v>39.3936519622803</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>1651471.22114697</v>
+        <v>1636390.92170394</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>1612306.85582753</v>
+        <v>1623226.84612349</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>1611174.58023863</v>
+        <v>1622209.16472132</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>3</v>
@@ -8789,16 +7149,16 @@
         <v>0.9</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>92.1882221698761</v>
+        <v>75.9560489654541</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>1638966.43766662</v>
+        <v>1658997.27369263</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>1610038.2311916</v>
+        <v>1623729.57100055</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>1608662.14707939</v>
+        <v>1622118.29928409</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>3</v>
@@ -8818,16 +7178,16 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>99.7621068954468</v>
+        <v>73.4478559494019</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>1629202.20176036</v>
+        <v>1634860.89055264</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>1616074.95413199</v>
+        <v>1633557.50094352</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>1615172.46707253</v>
+        <v>1632367.99693797</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>3</v>
@@ -8847,16 +7207,16 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>95.3074820041656</v>
+        <v>94.7499580383301</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>1641592.34977</v>
+        <v>1638392.15678299</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>1614392.42553241</v>
+        <v>1627206.22551173</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>1613485.89490148</v>
+        <v>1625757.14185613</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>3</v>
@@ -8876,16 +7236,16 @@
         <v>0.9</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>107.697962999344</v>
+        <v>67.0862720012665</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>1633789.16140344</v>
+        <v>1637287.04531964</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>1617274.80290672</v>
+        <v>1623977.69973523</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>1615788.45335702</v>
+        <v>1623257.2585697</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>3</v>
@@ -8905,16 +7265,16 @@
         <v>0.9</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>116.485963106155</v>
+        <v>100.838618993759</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>1635526.8502576</v>
+        <v>1632207.57344809</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>1617042.76017833</v>
+        <v>1635515.9272014</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>1615916.95501606</v>
+        <v>1634739.80846941</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>3</v>
@@ -8934,16 +7294,16 @@
         <v>0.9</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>87.3228771686554</v>
+        <v>56.1091079711914</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>1630789.54819351</v>
+        <v>1630809.05795005</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>1621058.58107711</v>
+        <v>1638905.97383582</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>1619910.21096152</v>
+        <v>1637725.78728353</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>3</v>
@@ -8963,16 +7323,16 @@
         <v>0.9</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>117.097970962524</v>
+        <v>85.6069159507751</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>1635505.92332612</v>
+        <v>1637138.01535917</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>1611776.0385954</v>
+        <v>1623599.79795913</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>1611136.49083239</v>
+        <v>1623108.69359264</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>3</v>
@@ -8992,16 +7352,16 @@
         <v>0.9</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>92.6824560165405</v>
+        <v>65.3214628696442</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>1632916.18830015</v>
+        <v>1638993.92274279</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>1614711.34808397</v>
+        <v>1628356.71129833</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>1613784.66536222</v>
+        <v>1627347.17152299</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>3</v>
@@ -9021,16 +7381,16 @@
         <v>0.9</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>125.094359874725</v>
+        <v>54.5894198417664</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>1637236.98979097</v>
+        <v>1641656.58439212</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>1613428.72886268</v>
+        <v>1625648.32447582</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>1612384.93136643</v>
+        <v>1624220.42489641</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>3</v>
@@ -9050,16 +7410,16 @@
         <v>0.9</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>89.1781198978424</v>
+        <v>42.595034122467</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>1646499.27146459</v>
+        <v>1634470.55287436</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>1610308.72369889</v>
+        <v>1623487.05172628</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>1609147.77587443</v>
+        <v>1621898.91861794</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>3</v>
@@ -9079,16 +7439,16 @@
         <v>0.9</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>83.962671995163</v>
+        <v>79.9638171195984</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>1632182.849986</v>
+        <v>1644987.33619728</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>1611769.08846787</v>
+        <v>1628060.55819219</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>1610215.22725519</v>
+        <v>1626515.62073583</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>3</v>
@@ -9108,16 +7468,16 @@
         <v>0.9</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>153.832144021988</v>
+        <v>52.5797321796417</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>1628629.75113004</v>
+        <v>1629534.94894594</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>1618269.73133041</v>
+        <v>1638458.94331131</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>1616831.09809885</v>
+        <v>1636837.3530904</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>3</v>
@@ -9137,16 +7497,16 @@
         <v>0.9</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>60.4383070468903</v>
+        <v>99.6792979240417</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>1633763.7908674</v>
+        <v>1635688.47523944</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>1617013.11887664</v>
+        <v>1628494.81048663</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>1615593.40498267</v>
+        <v>1626933.7628862</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>3</v>
@@ -9166,16 +7526,16 @@
         <v>0.9</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>106.801309108734</v>
+        <v>75.5346031188965</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>1631406.18185975</v>
+        <v>1630462.86460175</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>1617344.11380493</v>
+        <v>1631393.16849527</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>1616500.42959023</v>
+        <v>1630871.3214659</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>3</v>
@@ -9195,16 +7555,16 @@
         <v>0.9</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>97.5221340656281</v>
+        <v>70.1934401988983</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>1630089.18703266</v>
+        <v>1627623.75773004</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>1619637.89493784</v>
+        <v>1636875.65158805</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>1618228.76884218</v>
+        <v>1635488.25267576</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>3</v>
@@ -9224,16 +7584,16 @@
         <v>0.9</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>134.883680105209</v>
+        <v>78.5173320770264</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>1630265.5916646</v>
+        <v>1628808.0922473</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>1621602.22430747</v>
+        <v>1639117.88103894</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>1620195.84526589</v>
+        <v>1638129.56975262</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>3</v>
@@ -9253,16 +7613,16 @@
         <v>0.9</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>84.3330969810486</v>
+        <v>95.4004380702972</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>1629569.14869626</v>
+        <v>1630550.63096223</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>1617549.30199429</v>
+        <v>1625832.36628693</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>1616826.99991</v>
+        <v>1624523.53548677</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>3</v>
@@ -9282,16 +7642,16 @@
         <v>0.9</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>106.710675001144</v>
+        <v>56.6201078891754</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>1632600.55576392</v>
+        <v>1638443.33108245</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>1618041.02863755</v>
+        <v>1627333.96307688</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>1616454.21717951</v>
+        <v>1625814.20840097</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>3</v>
@@ -9311,16 +7671,16 @@
         <v>0.9</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>115.077950954437</v>
+        <v>40.9625768661499</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>1632946.31620396</v>
+        <v>1631301.85777569</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>1613571.63349579</v>
+        <v>1627242.94473491</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>1612161.03065764</v>
+        <v>1625797.16254153</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>3</v>
@@ -9340,16 +7700,16 @@
         <v>0.9</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>123.291561841965</v>
+        <v>111.335078001022</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>1637591.83364078</v>
+        <v>1633541.45291456</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>1613671.95643792</v>
+        <v>1635932.75523545</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>1612900.84961161</v>
+        <v>1634654.96879412</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>3</v>
@@ -9369,16 +7729,16 @@
         <v>0.9</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>121.293038845062</v>
+        <v>77.7669818401337</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>1629525.69929117</v>
+        <v>1637834.03075786</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>1613011.56960227</v>
+        <v>1632372.98237364</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>1612451.53729184</v>
+        <v>1631107.64973475</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>3</v>
@@ -9398,16 +7758,16 @@
         <v>0.9</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>155.583293914795</v>
+        <v>79.45356798172</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>1629155.06621367</v>
+        <v>1629207.27475903</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>1617700.446434</v>
+        <v>1636756.79103275</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>1616518.99862239</v>
+        <v>1635713.08244138</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>3</v>
@@ -9427,16 +7787,16 @@
         <v>0.9</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>119.673111200333</v>
+        <v>81.563316822052</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>1633224.04526555</v>
+        <v>1632341.53258611</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>1618871.13900112</v>
+        <v>1632023.0508955</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1617252.89777001</v>
+        <v>1630799.50956463</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>3</v>
@@ -9456,16 +7816,16 @@
         <v>0.9</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>152.685883998871</v>
+        <v>90.5621390342713</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>1628870.03492835</v>
+        <v>1628819.49071253</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>1621546.45571596</v>
+        <v>1629317.41948284</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>1620931.54660969</v>
+        <v>1628634.62765074</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>3</v>
@@ -9485,16 +7845,16 @@
         <v>0.9</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>86.3208210468292</v>
+        <v>133.253820896149</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>1629629.54960928</v>
+        <v>1627765.32947047</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>1619769.72960862</v>
+        <v>1635620.92614267</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>1618503.06541672</v>
+        <v>1634070.87370735</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>3</v>
@@ -9514,16 +7874,16 @@
         <v>0.9</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>134.778142929077</v>
+        <v>83.5168499946594</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>1628178.93962719</v>
+        <v>1626890.61005024</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>1622715.91260276</v>
+        <v>1638094.17543768</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>1621249.48349925</v>
+        <v>1636978.8772282</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>3</v>
@@ -9543,16 +7903,16 @@
         <v>0.9</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>103.573925971985</v>
+        <v>356.222217082977</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>1627962.5109122</v>
+        <v>1628581.42666602</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>1620466.06607043</v>
+        <v>1627145.97999052</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>1619239.02823406</v>
+        <v>1626769.12073877</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>3</v>
@@ -9572,16 +7932,16 @@
         <v>0.9</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>133.016725063324</v>
+        <v>63.8161849975586</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>1627635.30732212</v>
+        <v>1632514.31465271</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>1620092.44124349</v>
+        <v>1631082.60907307</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>1618620.11435605</v>
+        <v>1630448.96130893</v>
       </c>
       <c r="I58" s="1" t="n">
         <v>3</v>
@@ -9601,16 +7961,16 @@
         <v>0.9</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>119.771661043167</v>
+        <v>76.2118089199066</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>1631262.16476637</v>
+        <v>1628672.16301792</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>1614567.83253695</v>
+        <v>1629810.61587139</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>1613334.31689425</v>
+        <v>1628728.53137238</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>3</v>
@@ -9630,16 +7990,16 @@
         <v>0.9</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>128.134171009064</v>
+        <v>64.593780040741</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>1633323.50499819</v>
+        <v>1629536.03836744</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>1614948.34457439</v>
+        <v>1633722.36198039</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>1613452.12325442</v>
+        <v>1632090.51959848</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>3</v>
@@ -9659,16 +8019,16 @@
         <v>0.9</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>122.110824108124</v>
+        <v>81.4176080226898</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>1629696.50027599</v>
+        <v>1631258.46389386</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>1616742.75958636</v>
+        <v>1631915.85638545</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>1615394.58685401</v>
+        <v>1631129.10481248</v>
       </c>
       <c r="I61" s="1" t="n">
         <v>3</v>
@@ -9688,16 +8048,16 @@
         <v>0.9</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>131.89599108696</v>
+        <v>107.501513004303</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>1628980.05929969</v>
+        <v>1628195.8579154</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>1618398.38285563</v>
+        <v>1637160.00841099</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>1616989.66373382</v>
+        <v>1635565.92867072</v>
       </c>
       <c r="I62" s="1" t="n">
         <v>3</v>
@@ -9717,16 +8077,16 @@
         <v>0.9</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>145.106420993805</v>
+        <v>87.7696130275726</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>1630904.43051738</v>
+        <v>1630418.57483176</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>1618702.87651755</v>
+        <v>1631770.7572946</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>1617129.05745106</v>
+        <v>1630873.09309389</v>
       </c>
       <c r="I63" s="1" t="n">
         <v>3</v>
@@ -9746,16 +8106,16 @@
         <v>0.9</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>100.954810142517</v>
+        <v>141.597772121429</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>1627557.18981258</v>
+        <v>1627887.84982913</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>1623321.38803157</v>
+        <v>1631737.03311027</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>1621731.55006356</v>
+        <v>1630735.08578683</v>
       </c>
       <c r="I64" s="1" t="n">
         <v>3</v>
@@ -9775,16 +8135,16 @@
         <v>0.9</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>115.639738082886</v>
+        <v>117.705303192139</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>1627670.31958472</v>
+        <v>1627958.27267917</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>1619908.19918622</v>
+        <v>1635893.92815472</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>1619261.51817261</v>
+        <v>1634963.79259096</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>3</v>
@@ -9804,16 +8164,16 @@
         <v>0.9</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>120.720849990845</v>
+        <v>130.305752038956</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>1628885.54064658</v>
+        <v>1624656.59793792</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>1626873.48715302</v>
+        <v>1637587.15016583</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>1625882.86012053</v>
+        <v>1636916.70013338</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>3</v>
@@ -9833,16 +8193,16 @@
         <v>0.9</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>110.457138061523</v>
+        <v>88.5344889163971</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>1629684.93527795</v>
+        <v>1627510.39354665</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>1620562.07367786</v>
+        <v>1627401.31571841</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>1619198.94762945</v>
+        <v>1625778.54088552</v>
       </c>
       <c r="I67" s="1" t="n">
         <v>3</v>
@@ -9862,16 +8222,16 @@
         <v>0.9</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>130.754239082336</v>
+        <v>81.8878309726715</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>1627707.07887075</v>
+        <v>1627618.39410075</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>1618946.4213037</v>
+        <v>1636170.80462233</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>1617662.41558635</v>
+        <v>1635195.09560718</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>3</v>
@@ -9891,16 +8251,16 @@
         <v>0.9</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>129.040287017822</v>
+        <v>106.042895078659</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>1630584.83831995</v>
+        <v>1629479.22394301</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>1616745.92044612</v>
+        <v>1630332.36780988</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>1615268.14262155</v>
+        <v>1629042.10466296</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>3</v>
@@ -9920,16 +8280,16 @@
         <v>0.9</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>186.104809045792</v>
+        <v>83.4166350364685</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>1635204.20560887</v>
+        <v>1630258.45038567</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>1614973.50472001</v>
+        <v>1636774.47713294</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>1614012.06563027</v>
+        <v>1635589.2871157</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>3</v>
@@ -9949,16 +8309,16 @@
         <v>0.9</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>193.762276887894</v>
+        <v>101.000221967697</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>1627490.35823415</v>
+        <v>1629008.53579592</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>1618115.56447004</v>
+        <v>1633301.42287972</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>1616753.64049118</v>
+        <v>1631677.72039919</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>3</v>
@@ -9978,16 +8338,16 @@
         <v>0.9</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>205.91894197464</v>
+        <v>99.1490521430969</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>1627844.34182863</v>
+        <v>1626372.57033293</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>1619654.5489409</v>
+        <v>1636192.52962621</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>1618049.30552811</v>
+        <v>1635456.271227</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>3</v>
@@ -10007,16 +8367,16 @@
         <v>0.9</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>109.197873830795</v>
+        <v>108.514371871948</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>1627903.53354419</v>
+        <v>1628287.26755363</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>1619675.51404597</v>
+        <v>1633495.90828001</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>1618089.18614391</v>
+        <v>1632096.79602309</v>
       </c>
       <c r="I73" s="1" t="n">
         <v>3</v>
@@ -10036,16 +8396,16 @@
         <v>0.9</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>118.388709068298</v>
+        <v>124.417995929718</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>1627246.24576685</v>
+        <v>1625627.94639403</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>1622456.42916332</v>
+        <v>1634308.85131941</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>1620840.9350338</v>
+        <v>1633308.54871666</v>
       </c>
       <c r="I74" s="1" t="n">
         <v>3</v>
@@ -10065,16 +8425,16 @@
         <v>0.9</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>112.065471887589</v>
+        <v>199.233268022537</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>1627445.52963445</v>
+        <v>1626152.47713777</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>1621496.69737235</v>
+        <v>1641581.09369154</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>1620023.31271684</v>
+        <v>1640963.52284617</v>
       </c>
       <c r="I75" s="1" t="n">
         <v>3</v>
@@ -10094,16 +8454,16 @@
         <v>0.9</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>115.32573390007</v>
+        <v>95.3958239555359</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>1627610.59777264</v>
+        <v>1624673.09218723</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>1629556.86024987</v>
+        <v>1638144.35547862</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>1628314.36978177</v>
+        <v>1637356.40496073</v>
       </c>
       <c r="I76" s="1" t="n">
         <v>3</v>
@@ -10123,16 +8483,16 @@
         <v>0.9</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>139.513753890991</v>
+        <v>128.103491067886</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>1626395.88451317</v>
+        <v>1627327.98734747</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>1619897.30734071</v>
+        <v>1627587.22184493</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>1618929.33182348</v>
+        <v>1626050.1337378</v>
       </c>
       <c r="I77" s="1" t="n">
         <v>3</v>
@@ -10152,16 +8512,16 @@
         <v>0.9</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>128.185039043427</v>
+        <v>109.630517959595</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>1626173.25966498</v>
+        <v>1626912.77638656</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>1618030.6447688</v>
+        <v>1636532.10210645</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>1617165.29309802</v>
+        <v>1635264.9732616</v>
       </c>
       <c r="I78" s="1" t="n">
         <v>3</v>
@@ -10181,16 +8541,16 @@
         <v>0.9</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>137.399793148041</v>
+        <v>142.269736051559</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>1630506.43242956</v>
+        <v>1628845.62251678</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>1616511.01131381</v>
+        <v>1630277.5534261</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>1614899.62947908</v>
+        <v>1628815.84438482</v>
       </c>
       <c r="I79" s="1" t="n">
         <v>3</v>
@@ -10210,16 +8570,16 @@
         <v>0.9</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>169.56432390213</v>
+        <v>168.525325059891</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>1630561.91420873</v>
+        <v>1628406.50623132</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>1615994.64383765</v>
+        <v>1642713.50383863</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>1614864.35044276</v>
+        <v>1641338.77104729</v>
       </c>
       <c r="I80" s="1" t="n">
         <v>3</v>
@@ -10239,16 +8599,16 @@
         <v>0.9</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>131.612342119217</v>
+        <v>75.6027479171753</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>1626357.20701604</v>
+        <v>1628132.53789843</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>1617263.24698697</v>
+        <v>1638989.22089094</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>1616181.09818778</v>
+        <v>1637358.24084457</v>
       </c>
       <c r="I81" s="1" t="n">
         <v>3</v>
@@ -10268,16 +8628,16 @@
         <v>0.9</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>142.573687076569</v>
+        <v>160.201835870743</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>1628402.62339611</v>
+        <v>1626154.41699761</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>1618964.32878045</v>
+        <v>1636720.75968491</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>1617666.19625225</v>
+        <v>1635613.39855336</v>
       </c>
       <c r="I82" s="1" t="n">
         <v>3</v>
@@ -10297,16 +8657,16 @@
         <v>0.9</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>112.776470899582</v>
+        <v>115.917984008789</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>1627954.96727997</v>
+        <v>1626176.08585022</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>1620270.90249123</v>
+        <v>1635905.4386827</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>1618728.0199695</v>
+        <v>1634402.53640393</v>
       </c>
       <c r="I83" s="1" t="n">
         <v>3</v>
@@ -10326,16 +8686,16 @@
         <v>0.9</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>135.136289834976</v>
+        <v>135.778625011444</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>1626951.96440867</v>
+        <v>1623809.3825769</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>1623571.80600978</v>
+        <v>1635587.71614765</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>1621974.76502585</v>
+        <v>1634708.93625378</v>
       </c>
       <c r="I84" s="1" t="n">
         <v>3</v>
@@ -10355,16 +8715,16 @@
         <v>0.9</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>164.07420706749</v>
+        <v>161.363626003265</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>1626800.03545095</v>
+        <v>1625400.83160209</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>1621504.54195077</v>
+        <v>1641556.81423432</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>1619939.51791572</v>
+        <v>1639931.67291315</v>
       </c>
       <c r="I85" s="1" t="n">
         <v>3</v>
@@ -10384,16 +8744,16 @@
         <v>0.9</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>132.226506948471</v>
+        <v>165.592244148254</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>1625791.85241262</v>
+        <v>1624082.67991026</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>1629507.67681088</v>
+        <v>1638972.96141049</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>1628186.00630785</v>
+        <v>1637968.20128824</v>
       </c>
       <c r="I86" s="1" t="n">
         <v>3</v>
@@ -10413,16 +8773,16 @@
         <v>0.9</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>178.256636142731</v>
+        <v>127.423753023148</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>1627524.46722943</v>
+        <v>1625112.94894148</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>1621910.31225374</v>
+        <v>1628643.04055268</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>1621070.83914248</v>
+        <v>1627932.07036787</v>
       </c>
       <c r="I87" s="1" t="n">
         <v>3</v>
@@ -10442,16 +8802,16 @@
         <v>0.9</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>164.963768005371</v>
+        <v>90.7781670093536</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>1627028.28927986</v>
+        <v>1626201.7783464</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>1617769.63202907</v>
+        <v>1636439.57476961</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>1617249.98201478</v>
+        <v>1635435.54984559</v>
       </c>
       <c r="I88" s="1" t="n">
         <v>3</v>
@@ -10471,16 +8831,16 @@
         <v>0.9</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>168.456101894379</v>
+        <v>105.267561912537</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>1628284.45370152</v>
+        <v>1628352.12780363</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>1616868.9249696</v>
+        <v>1631107.60986055</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>1615808.61374368</v>
+        <v>1630258.2763105</v>
       </c>
       <c r="I89" s="1" t="n">
         <v>3</v>
@@ -10500,16 +8860,16 @@
         <v>0.9</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>173.412958145142</v>
+        <v>159.601562976837</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>1629332.12073579</v>
+        <v>1627797.32280071</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>1616250.43725181</v>
+        <v>1642045.99175183</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>1615305.67165166</v>
+        <v>1640404.90301514</v>
       </c>
       <c r="I90" s="1" t="n">
         <v>3</v>
@@ -10529,16 +8889,16 @@
         <v>0.9</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>121.443940162659</v>
+        <v>131.562662124634</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>1627333.44387799</v>
+        <v>1627107.85315033</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>1619294.43484156</v>
+        <v>1639497.93330897</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>1617677.18758844</v>
+        <v>1638297.87708329</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>3</v>
@@ -10558,16 +8918,16 @@
         <v>0.9</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>144.211405038834</v>
+        <v>213.425356149673</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>1628161.80126458</v>
+        <v>1627218.20933009</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>1620425.04894873</v>
+        <v>1636915.81290526</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>1618806.52621727</v>
+        <v>1635444.66847511</v>
       </c>
       <c r="I92" s="1" t="n">
         <v>3</v>
@@ -10587,16 +8947,16 @@
         <v>0.9</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>173.352842092514</v>
+        <v>149.57232093811</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>1626527.75374929</v>
+        <v>1625456.22565705</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>1621138.1264017</v>
+        <v>1636439.6021993</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>1619551.87189483</v>
+        <v>1635205.7760735</v>
       </c>
       <c r="I93" s="1" t="n">
         <v>3</v>
@@ -10616,16 +8976,16 @@
         <v>0.9</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>180.671502828598</v>
+        <v>126.305369138718</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>1626544.85774829</v>
+        <v>1623575.1893337</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>1624233.29836148</v>
+        <v>1635308.37012853</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>1623353.28131274</v>
+        <v>1634295.98789258</v>
       </c>
       <c r="I94" s="1" t="n">
         <v>3</v>
@@ -10645,16 +9005,16 @@
         <v>0.9</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>211.001605987549</v>
+        <v>173.346036195755</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>1626577.85965408</v>
+        <v>1623478.73994491</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>1621683.90492009</v>
+        <v>1642845.63054517</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>1620713.07249176</v>
+        <v>1641373.37976648</v>
       </c>
       <c r="I95" s="1" t="n">
         <v>3</v>
@@ -10674,16 +9034,16 @@
         <v>0.9</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>157.167304039001</v>
+        <v>170.121401071548</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>1625329.66657995</v>
+        <v>1623471.52279894</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>1629689.41888623</v>
+        <v>1638536.33203652</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>1628655.01008618</v>
+        <v>1638042.65472431</v>
       </c>
       <c r="I96" s="1" t="n">
         <v>3</v>
@@ -10703,16 +9063,16 @@
         <v>0.9</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>154.303982019424</v>
+        <v>156.63546705246</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>1626847.74984843</v>
+        <v>1624970.745787</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>1621443.22349133</v>
+        <v>1629112.68833605</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>1620207.83484242</v>
+        <v>1627801.05943237</v>
       </c>
       <c r="I97" s="1" t="n">
         <v>3</v>
@@ -10732,16 +9092,16 @@
         <v>0.9</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>192.494518041611</v>
+        <v>168.392594099045</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>1627761.52641162</v>
+        <v>1625384.8435162</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>1618332.18372675</v>
+        <v>1636826.54158449</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>1617172.09410429</v>
+        <v>1635475.73622048</v>
       </c>
       <c r="I98" s="1" t="n">
         <v>3</v>
@@ -10761,16 +9121,16 @@
         <v>0.9</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>191.503079175949</v>
+        <v>107.569535017014</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>1625669.16111877</v>
+        <v>1627487.17419215</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>1617384.52256674</v>
+        <v>1630954.35270207</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>1616528.62940632</v>
+        <v>1630040.26971427</v>
       </c>
       <c r="I99" s="1" t="n">
         <v>3</v>
@@ -10790,16 +9150,16 @@
         <v>0.9</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>135.217345952988</v>
+        <v>186.916875839233</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>1627463.89750738</v>
+        <v>1627503.12309667</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>1617235.52353123</v>
+        <v>1640938.3005603</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>1615673.26865317</v>
+        <v>1640028.93879151</v>
       </c>
       <c r="I100" s="1" t="n">
         <v>3</v>
@@ -10819,123 +9179,22 @@
         <v>0.9</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>157.77543592453</v>
+        <v>164.098490953445</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>1626454.15370601</v>
+        <v>1624788.23623411</v>
       </c>
       <c r="G101" s="1" t="n">
-        <v>1619205.33319542</v>
+        <v>1638270.60098599</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>1618401.60084804</v>
+        <v>1637911.40832167</v>
       </c>
       <c r="I101" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:I201"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10943,6 +9202,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>